--- a/Accelerometer and Audio data/IMU and ADXL data/Excel data and plotting program/Excel sheets/Sidewalk_adxl-3200Hz-16g_imu-562Hz-16g.xlsx
+++ b/Accelerometer and Audio data/IMU and ADXL data/Excel data and plotting program/Excel sheets/Sidewalk_adxl-3200Hz-16g_imu-562Hz-16g.xlsx
@@ -501,7 +501,7 @@
         <v>4.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.298148114403566</v>
+        <v>-2.298148114403568</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
@@ -531,7 +531,7 @@
         <v>10.13</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.989891073866533</v>
+        <v>-4.989891073866529</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -544,7 +544,7 @@
         <v>-5.57</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.214582482174263</v>
+        <v>-9.214582482174269</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.382767083061505</v>
+        <v>-5.382767083061506</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
@@ -621,7 +621,7 @@
         <v>8.4</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.777265334511104</v>
+        <v>-1.777265334511103</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -634,7 +634,7 @@
         <v>-4.63</v>
       </c>
       <c r="J6" t="n">
-        <v>2.109312389085679</v>
+        <v>2.109312389085689</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>-4.79</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.7155266739415664</v>
+        <v>-0.7155266739415715</v>
       </c>
     </row>
     <row r="8">
@@ -681,7 +681,7 @@
         <v>7.87</v>
       </c>
       <c r="E8" t="n">
-        <v>2.594338050073386</v>
+        <v>2.59433805007339</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -724,7 +724,7 @@
         <v>-4.94</v>
       </c>
       <c r="J9" t="n">
-        <v>2.997565295992826</v>
+        <v>2.997565295992808</v>
       </c>
     </row>
     <row r="10">
@@ -741,7 +741,7 @@
         <v>7.84</v>
       </c>
       <c r="E10" t="n">
-        <v>1.131373087232474</v>
+        <v>1.131373087232477</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
@@ -754,7 +754,7 @@
         <v>-4.94</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.874304856226367</v>
+        <v>-6.874304856226369</v>
       </c>
     </row>
     <row r="11">
@@ -771,7 +771,7 @@
         <v>7.56</v>
       </c>
       <c r="E11" t="n">
-        <v>1.079070606571523</v>
+        <v>1.079070606571525</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
@@ -801,7 +801,7 @@
         <v>7.65</v>
       </c>
       <c r="E12" t="n">
-        <v>7.723271021011016</v>
+        <v>7.723271021011013</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
@@ -814,7 +814,7 @@
         <v>-3.06</v>
       </c>
       <c r="J12" t="n">
-        <v>-16.28853189799647</v>
+        <v>-16.28853189799648</v>
       </c>
     </row>
     <row r="13">
@@ -831,7 +831,7 @@
         <v>8.16</v>
       </c>
       <c r="E13" t="n">
-        <v>1.825933930696006</v>
+        <v>1.825933930695999</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
@@ -844,7 +844,7 @@
         <v>-3.06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.981441686334696</v>
+        <v>3.981441686334706</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +874,7 @@
         <v>-2.75</v>
       </c>
       <c r="J14" t="n">
-        <v>6.072713220753458</v>
+        <v>6.072713220753467</v>
       </c>
     </row>
     <row r="15">
@@ -891,7 +891,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6935086346027134</v>
+        <v>-0.6935086346027115</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
@@ -904,7 +904,7 @@
         <v>-3.84</v>
       </c>
       <c r="J15" t="n">
-        <v>6.299525068119854</v>
+        <v>6.29952506811988</v>
       </c>
     </row>
     <row r="16">
@@ -921,7 +921,7 @@
         <v>8.74</v>
       </c>
       <c r="E16" t="n">
-        <v>4.985054363754054</v>
+        <v>4.985054363754053</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
@@ -951,7 +951,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9396384366712057</v>
+        <v>-0.9396384366712074</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
@@ -964,7 +964,7 @@
         <v>-3.77</v>
       </c>
       <c r="J17" t="n">
-        <v>12.49244234205367</v>
+        <v>12.49244234205366</v>
       </c>
     </row>
     <row r="18">
@@ -981,7 +981,7 @@
         <v>8.17</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8398389642104067</v>
+        <v>0.8398389642104064</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
@@ -994,7 +994,7 @@
         <v>-5.02</v>
       </c>
       <c r="J18" t="n">
-        <v>4.593854522194771</v>
+        <v>4.593854522194766</v>
       </c>
     </row>
     <row r="19">
@@ -1011,7 +1011,7 @@
         <v>7.49</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.237355881861685</v>
+        <v>-8.23735588186169</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
@@ -1024,7 +1024,7 @@
         <v>-6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>20.98986349621607</v>
+        <v>20.98986349621606</v>
       </c>
     </row>
     <row r="20">
@@ -1041,7 +1041,7 @@
         <v>7.29</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.802983338068017</v>
+        <v>-8.802983338068021</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
@@ -1054,7 +1054,7 @@
         <v>103.95</v>
       </c>
       <c r="J20" t="n">
-        <v>16.86378059518508</v>
+        <v>16.86378059518509</v>
       </c>
     </row>
     <row r="21">
@@ -1071,7 +1071,7 @@
         <v>-71.63</v>
       </c>
       <c r="E21" t="n">
-        <v>3.934414541525861</v>
+        <v>3.934414541525866</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
@@ -1101,7 +1101,7 @@
         <v>13.88</v>
       </c>
       <c r="E22" t="n">
-        <v>-5.168796535962108</v>
+        <v>-5.168796535962105</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -1144,7 +1144,7 @@
         <v>-11.92</v>
       </c>
       <c r="J23" t="n">
-        <v>-6.464870794916672</v>
+        <v>-6.464870794916671</v>
       </c>
     </row>
     <row r="24">
@@ -1161,7 +1161,7 @@
         <v>17.64</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.08320526965660457</v>
+        <v>-0.08320526965660426</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
@@ -1191,7 +1191,7 @@
         <v>5.31</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.040111848102293</v>
+        <v>-1.040111848102298</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -1204,7 +1204,7 @@
         <v>-6.43</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.007047783051144</v>
+        <v>-2.007047783051126</v>
       </c>
     </row>
     <row r="26">
@@ -1221,7 +1221,7 @@
         <v>8.52</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.099768096193296</v>
+        <v>-3.099768096193293</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -1234,7 +1234,7 @@
         <v>-1.41</v>
       </c>
       <c r="J26" t="n">
-        <v>11.27430661749675</v>
+        <v>11.27430661749676</v>
       </c>
     </row>
     <row r="27">
@@ -1251,7 +1251,7 @@
         <v>8.26</v>
       </c>
       <c r="E27" t="n">
-        <v>1.765426406533248</v>
+        <v>1.765426406533249</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
@@ -1264,7 +1264,7 @@
         <v>3.06</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.879369733192983</v>
+        <v>-4.879369733192985</v>
       </c>
     </row>
     <row r="28">
@@ -1281,7 +1281,7 @@
         <v>9.19</v>
       </c>
       <c r="E28" t="n">
-        <v>11.11083340972609</v>
+        <v>11.11083340972608</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
@@ -1294,7 +1294,7 @@
         <v>0.08</v>
       </c>
       <c r="J28" t="n">
-        <v>8.715490636838538</v>
+        <v>8.715490636838544</v>
       </c>
     </row>
     <row r="29">
@@ -1311,7 +1311,7 @@
         <v>7.99</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.506905408731438</v>
+        <v>-6.506905408731442</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
@@ -1324,7 +1324,7 @@
         <v>-2.98</v>
       </c>
       <c r="J29" t="n">
-        <v>1.931529065579259</v>
+        <v>1.931529065579266</v>
       </c>
     </row>
     <row r="30">
@@ -1354,7 +1354,7 @@
         <v>-19.61</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0002421322302754763</v>
+        <v>-0.0002421322302931609</v>
       </c>
     </row>
     <row r="31">
@@ -1371,7 +1371,7 @@
         <v>-6.16</v>
       </c>
       <c r="E31" t="n">
-        <v>-5.785755807451013</v>
+        <v>-5.785755807451015</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
@@ -1384,7 +1384,7 @@
         <v>-26.05</v>
       </c>
       <c r="J31" t="n">
-        <v>-8.284048162100877</v>
+        <v>-8.284048162100888</v>
       </c>
     </row>
     <row r="32">
@@ -1401,7 +1401,7 @@
         <v>11.58</v>
       </c>
       <c r="E32" t="n">
-        <v>5.830658301459944</v>
+        <v>5.830658301459948</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
@@ -1431,7 +1431,7 @@
         <v>1.19</v>
       </c>
       <c r="E33" t="n">
-        <v>4.904297377529034</v>
+        <v>4.90429737752904</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
@@ -1444,7 +1444,7 @@
         <v>-29.97</v>
       </c>
       <c r="J33" t="n">
-        <v>-11.94349738647154</v>
+        <v>-11.94349738647153</v>
       </c>
     </row>
     <row r="34">
@@ -1461,7 +1461,7 @@
         <v>14.38</v>
       </c>
       <c r="E34" t="n">
-        <v>1.478485673629803</v>
+        <v>1.478485673629801</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -1474,7 +1474,7 @@
         <v>-45.11</v>
       </c>
       <c r="J34" t="n">
-        <v>-4.411318328460645</v>
+        <v>-4.411318328460649</v>
       </c>
     </row>
     <row r="35">
@@ -1491,7 +1491,7 @@
         <v>5.74</v>
       </c>
       <c r="E35" t="n">
-        <v>6.040634811337817</v>
+        <v>6.040634811337812</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
@@ -1504,7 +1504,7 @@
         <v>12.55</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9053747992126925</v>
+        <v>0.9053747992127001</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         <v>10.02</v>
       </c>
       <c r="E36" t="n">
-        <v>5.772995644140618</v>
+        <v>5.772995644140623</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
@@ -1551,7 +1551,7 @@
         <v>0.43</v>
       </c>
       <c r="E37" t="n">
-        <v>1.044122956773888</v>
+        <v>1.044122956773877</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
@@ -1564,7 +1564,7 @@
         <v>12.79</v>
       </c>
       <c r="J37" t="n">
-        <v>18.21348507080461</v>
+        <v>18.21348507080462</v>
       </c>
     </row>
     <row r="38">
@@ -1581,7 +1581,7 @@
         <v>14.36</v>
       </c>
       <c r="E38" t="n">
-        <v>1.568123102530035</v>
+        <v>1.56812310253003</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
@@ -1594,7 +1594,7 @@
         <v>12.24</v>
       </c>
       <c r="J38" t="n">
-        <v>2.147437179674323</v>
+        <v>2.147437179674335</v>
       </c>
     </row>
     <row r="39">
@@ -1624,7 +1624,7 @@
         <v>-2.35</v>
       </c>
       <c r="J39" t="n">
-        <v>-14.63915124661217</v>
+        <v>-14.63915124661216</v>
       </c>
     </row>
     <row r="40">
@@ -1641,7 +1641,7 @@
         <v>21.7</v>
       </c>
       <c r="E40" t="n">
-        <v>16.42074940032436</v>
+        <v>16.42074940032437</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
@@ -1654,7 +1654,7 @@
         <v>-136.19</v>
       </c>
       <c r="J40" t="n">
-        <v>-59.40814867362144</v>
+        <v>-59.40814867362143</v>
       </c>
     </row>
     <row r="41">
@@ -1671,7 +1671,7 @@
         <v>22.49</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.220194637272725</v>
+        <v>-3.220194637272723</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
@@ -1684,7 +1684,7 @@
         <v>-21.65</v>
       </c>
       <c r="J41" t="n">
-        <v>-9.721246698476131</v>
+        <v>-9.721246698476135</v>
       </c>
     </row>
     <row r="42">
@@ -1714,7 +1714,7 @@
         <v>29.18</v>
       </c>
       <c r="J42" t="n">
-        <v>-5.470098073655397</v>
+        <v>-5.470098073655399</v>
       </c>
     </row>
     <row r="43">
@@ -1731,7 +1731,7 @@
         <v>-9.66</v>
       </c>
       <c r="E43" t="n">
-        <v>3.923778537818904</v>
+        <v>3.923778537818902</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
@@ -1744,7 +1744,7 @@
         <v>19.77</v>
       </c>
       <c r="J43" t="n">
-        <v>29.95720384855111</v>
+        <v>29.95720384855112</v>
       </c>
     </row>
     <row r="44">
@@ -1761,7 +1761,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>4.167855041017194</v>
+        <v>4.167855041017192</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
@@ -1774,7 +1774,7 @@
         <v>-40.25</v>
       </c>
       <c r="J44" t="n">
-        <v>-7.606623509832719</v>
+        <v>-7.606623509832715</v>
       </c>
     </row>
     <row r="45">
@@ -1791,7 +1791,7 @@
         <v>-1.04</v>
       </c>
       <c r="E45" t="n">
-        <v>13.32938141969897</v>
+        <v>13.32938141969898</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
@@ -1834,7 +1834,7 @@
         <v>-16.32</v>
       </c>
       <c r="J46" t="n">
-        <v>-8.514918015620204</v>
+        <v>-8.5149180156202</v>
       </c>
     </row>
     <row r="47">
@@ -1851,7 +1851,7 @@
         <v>-12.26</v>
       </c>
       <c r="E47" t="n">
-        <v>8.889886141321279</v>
+        <v>8.889886141321281</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
@@ -1864,7 +1864,7 @@
         <v>26.44</v>
       </c>
       <c r="J47" t="n">
-        <v>29.36412151756753</v>
+        <v>29.36412151756752</v>
       </c>
     </row>
     <row r="48">
@@ -1881,7 +1881,7 @@
         <v>13.46</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.803680940867055</v>
+        <v>-7.803680940867058</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
@@ -1894,7 +1894,7 @@
         <v>18.99</v>
       </c>
       <c r="J48" t="n">
-        <v>5.975599008301467</v>
+        <v>5.975599008301457</v>
       </c>
     </row>
     <row r="49">
@@ -1954,7 +1954,7 @@
         <v>7.77</v>
       </c>
       <c r="J50" t="n">
-        <v>-4.330640444225629</v>
+        <v>-4.330640444225632</v>
       </c>
     </row>
     <row r="51">
@@ -2031,7 +2031,7 @@
         <v>16.87</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.886854049021453</v>
+        <v>-7.886854049021456</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
@@ -2074,7 +2074,7 @@
         <v>16.95</v>
       </c>
       <c r="J54" t="n">
-        <v>22.19510577135819</v>
+        <v>22.1951057713582</v>
       </c>
     </row>
     <row r="55">
@@ -2134,7 +2134,7 @@
         <v>44.4</v>
       </c>
       <c r="J56" t="n">
-        <v>45.22592459620605</v>
+        <v>45.22592459620606</v>
       </c>
     </row>
     <row r="57">
@@ -2164,7 +2164,7 @@
         <v>45.9</v>
       </c>
       <c r="J57" t="n">
-        <v>23.04803225840726</v>
+        <v>23.04803225840728</v>
       </c>
     </row>
     <row r="58">
@@ -2181,7 +2181,7 @@
         <v>-56.37</v>
       </c>
       <c r="E58" t="n">
-        <v>-34.53070195397603</v>
+        <v>-34.53070195397602</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
@@ -2224,7 +2224,7 @@
         <v>43.15</v>
       </c>
       <c r="J59" t="n">
-        <v>27.77868346937899</v>
+        <v>27.77868346937898</v>
       </c>
     </row>
     <row r="60">
@@ -2241,7 +2241,7 @@
         <v>8.48</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.916555422444166</v>
+        <v>-8.916555422444162</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
@@ -2254,7 +2254,7 @@
         <v>69.59</v>
       </c>
       <c r="J60" t="n">
-        <v>46.50475692948286</v>
+        <v>46.50475692948284</v>
       </c>
     </row>
     <row r="61">
@@ -2284,7 +2284,7 @@
         <v>21.97</v>
       </c>
       <c r="J61" t="n">
-        <v>34.00769261356309</v>
+        <v>34.00769261356307</v>
       </c>
     </row>
     <row r="62">
@@ -2314,7 +2314,7 @@
         <v>27.54</v>
       </c>
       <c r="J62" t="n">
-        <v>25.0109317047898</v>
+        <v>25.01093170478979</v>
       </c>
     </row>
     <row r="63">
@@ -2331,7 +2331,7 @@
         <v>-27.07</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.556841728415096</v>
+        <v>-8.556841728415094</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
@@ -2344,7 +2344,7 @@
         <v>-4.08</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.867646158040052</v>
+        <v>-0.86764615804004</v>
       </c>
     </row>
     <row r="64">
@@ -2391,7 +2391,7 @@
         <v>43.79</v>
       </c>
       <c r="E65" t="n">
-        <v>47.68066281980624</v>
+        <v>47.68066281980623</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
@@ -2421,7 +2421,7 @@
         <v>10.25</v>
       </c>
       <c r="E66" t="n">
-        <v>19.47650205943883</v>
+        <v>19.47650205943882</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
@@ -2434,7 +2434,7 @@
         <v>-2.82</v>
       </c>
       <c r="J66" t="n">
-        <v>15.70951412383476</v>
+        <v>15.70951412383477</v>
       </c>
     </row>
     <row r="67">
@@ -2464,7 +2464,7 @@
         <v>10.9</v>
       </c>
       <c r="J67" t="n">
-        <v>-1.316137022590452</v>
+        <v>-1.316137022590458</v>
       </c>
     </row>
     <row r="68">
@@ -2481,7 +2481,7 @@
         <v>-16.97</v>
       </c>
       <c r="E68" t="n">
-        <v>-19.37832061891056</v>
+        <v>-19.37832061891057</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
@@ -2494,7 +2494,7 @@
         <v>-37.11</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.603566085555704</v>
+        <v>-9.603566085555716</v>
       </c>
     </row>
     <row r="69">
@@ -2511,7 +2511,7 @@
         <v>27.47</v>
       </c>
       <c r="E69" t="n">
-        <v>32.51877785478162</v>
+        <v>32.51877785478161</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
@@ -2524,7 +2524,7 @@
         <v>71.47</v>
       </c>
       <c r="J69" t="n">
-        <v>35.01170104669157</v>
+        <v>35.01170104669158</v>
       </c>
     </row>
     <row r="70">
@@ -2584,7 +2584,7 @@
         <v>38.76</v>
       </c>
       <c r="J71" t="n">
-        <v>61.83145829068631</v>
+        <v>61.83145829068629</v>
       </c>
     </row>
     <row r="72">
@@ -2614,7 +2614,7 @@
         <v>-46.05</v>
       </c>
       <c r="J72" t="n">
-        <v>-73.02701510567725</v>
+        <v>-73.02701510567724</v>
       </c>
     </row>
     <row r="73">
@@ -2631,7 +2631,7 @@
         <v>12.71</v>
       </c>
       <c r="E73" t="n">
-        <v>61.62451393404731</v>
+        <v>61.62451393404733</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
@@ -2644,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="J73" t="n">
-        <v>17.14362687231247</v>
+        <v>17.14362687231246</v>
       </c>
     </row>
     <row r="74">
@@ -2661,7 +2661,7 @@
         <v>4.49</v>
       </c>
       <c r="E74" t="n">
-        <v>1.958671281589927</v>
+        <v>1.958671281589929</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
@@ -2704,7 +2704,7 @@
         <v>47.23</v>
       </c>
       <c r="J75" t="n">
-        <v>39.95592734935303</v>
+        <v>39.95592734935304</v>
       </c>
     </row>
     <row r="76">
@@ -2721,7 +2721,7 @@
         <v>-10.87</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.39784317123281</v>
+        <v>-14.3978431712328</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
@@ -2764,7 +2764,7 @@
         <v>-9.890000000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>12.04834381601751</v>
+        <v>12.0483438160175</v>
       </c>
     </row>
     <row r="78">
@@ -2781,7 +2781,7 @@
         <v>0.13</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2573977795524999</v>
+        <v>-0.257397779552505</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
@@ -2811,7 +2811,7 @@
         <v>13.79</v>
       </c>
       <c r="E79" t="n">
-        <v>-6.756652036550242</v>
+        <v>-6.756652036550244</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
@@ -2854,7 +2854,7 @@
         <v>98.22</v>
       </c>
       <c r="J80" t="n">
-        <v>136.0690402710463</v>
+        <v>136.0690402710462</v>
       </c>
     </row>
     <row r="81">
@@ -2884,7 +2884,7 @@
         <v>-107.48</v>
       </c>
       <c r="J81" t="n">
-        <v>-78.82520508851945</v>
+        <v>-78.82520508851947</v>
       </c>
     </row>
     <row r="82">
@@ -2944,7 +2944,7 @@
         <v>5.02</v>
       </c>
       <c r="J83" t="n">
-        <v>3.08481887714124</v>
+        <v>3.084818877141241</v>
       </c>
     </row>
     <row r="84">
@@ -2961,7 +2961,7 @@
         <v>1.31</v>
       </c>
       <c r="E84" t="n">
-        <v>-6.054167739246494</v>
+        <v>-6.054167739246493</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
@@ -3004,7 +3004,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>-11.99382829727725</v>
+        <v>-11.99382829727724</v>
       </c>
     </row>
     <row r="86">
@@ -3051,7 +3051,7 @@
         <v>-14.11</v>
       </c>
       <c r="E87" t="n">
-        <v>-9.839408684446829</v>
+        <v>-9.839408684446832</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
@@ -3111,7 +3111,7 @@
         <v>6.91</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.099928784643891</v>
+        <v>-6.099928784643889</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
@@ -3154,7 +3154,7 @@
         <v>-20.08</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5058787515868365</v>
+        <v>0.5058787515868353</v>
       </c>
     </row>
     <row r="91">
@@ -3231,7 +3231,7 @@
         <v>-10.52</v>
       </c>
       <c r="E93" t="n">
-        <v>-10.51096990751255</v>
+        <v>-10.51096990751256</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
@@ -3291,7 +3291,7 @@
         <v>-8.43</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.834017772770803</v>
+        <v>-1.834017772770799</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
@@ -3321,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>-8.238646746226257</v>
+        <v>-8.238646746226262</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
@@ -3334,7 +3334,7 @@
         <v>-46.44</v>
       </c>
       <c r="J96" t="n">
-        <v>27.44985072950356</v>
+        <v>27.44985072950355</v>
       </c>
     </row>
     <row r="97">
@@ -3351,7 +3351,7 @@
         <v>13.4</v>
       </c>
       <c r="E97" t="n">
-        <v>50.65671304248309</v>
+        <v>50.65671304248308</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
@@ -3424,7 +3424,7 @@
         <v>22.28</v>
       </c>
       <c r="J99" t="n">
-        <v>5.177376565611707</v>
+        <v>5.177376565611723</v>
       </c>
     </row>
     <row r="100">
@@ -3514,7 +3514,7 @@
         <v>41.5</v>
       </c>
       <c r="J102" t="n">
-        <v>16.57591077243556</v>
+        <v>16.57591077243557</v>
       </c>
     </row>
     <row r="103">
@@ -3531,7 +3531,7 @@
         <v>12.68</v>
       </c>
       <c r="E103" t="n">
-        <v>-6.291953863358609</v>
+        <v>-6.2919538633586</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
@@ -3561,7 +3561,7 @@
         <v>44.52</v>
       </c>
       <c r="E104" t="n">
-        <v>43.00448651545916</v>
+        <v>43.00448651545915</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
@@ -3574,7 +3574,7 @@
         <v>4.71</v>
       </c>
       <c r="J104" t="n">
-        <v>-10.53509812280194</v>
+        <v>-10.53509812280193</v>
       </c>
     </row>
     <row r="105">
@@ -3604,7 +3604,7 @@
         <v>35.15</v>
       </c>
       <c r="J105" t="n">
-        <v>67.40250872326033</v>
+        <v>67.40250872326035</v>
       </c>
     </row>
     <row r="106">
@@ -3651,7 +3651,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>-8.536298222566449</v>
+        <v>-8.536298222566451</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
@@ -3681,7 +3681,7 @@
         <v>38.3</v>
       </c>
       <c r="E108" t="n">
-        <v>24.92387007039698</v>
+        <v>24.92387007039699</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
@@ -3694,7 +3694,7 @@
         <v>-1.33</v>
       </c>
       <c r="J108" t="n">
-        <v>38.78010706278516</v>
+        <v>38.78010706278514</v>
       </c>
     </row>
     <row r="109">
@@ -3711,7 +3711,7 @@
         <v>11.04</v>
       </c>
       <c r="E109" t="n">
-        <v>30.23200682314024</v>
+        <v>30.23200682314023</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
@@ -3784,7 +3784,7 @@
         <v>63</v>
       </c>
       <c r="J111" t="n">
-        <v>55.78752403542552</v>
+        <v>55.78752403542553</v>
       </c>
     </row>
     <row r="112">
@@ -3814,7 +3814,7 @@
         <v>-52.41</v>
       </c>
       <c r="J112" t="n">
-        <v>-38.59360899484163</v>
+        <v>-38.59360899484164</v>
       </c>
     </row>
     <row r="113">
@@ -3874,7 +3874,7 @@
         <v>-8.24</v>
       </c>
       <c r="J114" t="n">
-        <v>-21.70938062508377</v>
+        <v>-21.70938062508378</v>
       </c>
     </row>
     <row r="115">
@@ -3904,7 +3904,7 @@
         <v>54.52</v>
       </c>
       <c r="J115" t="n">
-        <v>11.72120716488563</v>
+        <v>11.72120716488564</v>
       </c>
     </row>
     <row r="116">
@@ -3934,7 +3934,7 @@
         <v>-7.22</v>
       </c>
       <c r="J116" t="n">
-        <v>-6.551456486769924</v>
+        <v>-6.551456486769914</v>
       </c>
     </row>
     <row r="117">
@@ -3981,7 +3981,7 @@
         <v>-10.5</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0804577627107512</v>
+        <v>0.08045776271075246</v>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
@@ -4011,7 +4011,7 @@
         <v>-24.97</v>
       </c>
       <c r="E119" t="n">
-        <v>-16.11396022602911</v>
+        <v>-16.1139602260291</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
@@ -4024,7 +4024,7 @@
         <v>-43.93</v>
       </c>
       <c r="J119" t="n">
-        <v>-4.736068400349747</v>
+        <v>-4.736068400349742</v>
       </c>
     </row>
     <row r="120">
@@ -4054,7 +4054,7 @@
         <v>-9.960000000000001</v>
       </c>
       <c r="J120" t="n">
-        <v>-5.574739636715399</v>
+        <v>-5.574739636715401</v>
       </c>
     </row>
     <row r="121">
@@ -4071,7 +4071,7 @@
         <v>16.01</v>
       </c>
       <c r="E121" t="n">
-        <v>22.15513148219894</v>
+        <v>22.15513148219893</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
@@ -4084,7 +4084,7 @@
         <v>40.32</v>
       </c>
       <c r="J121" t="n">
-        <v>7.971721010068176</v>
+        <v>7.971721010068185</v>
       </c>
     </row>
     <row r="122">
@@ -4114,7 +4114,7 @@
         <v>-34.36</v>
       </c>
       <c r="J122" t="n">
-        <v>-32.691786644674</v>
+        <v>-32.69178664467401</v>
       </c>
     </row>
     <row r="123">
@@ -4131,7 +4131,7 @@
         <v>41.66</v>
       </c>
       <c r="E123" t="n">
-        <v>7.121636998029866</v>
+        <v>7.12163699802987</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
@@ -4161,7 +4161,7 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>-8.570989183539085</v>
+        <v>-8.570989183539089</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
@@ -4191,7 +4191,7 @@
         <v>-10.11</v>
       </c>
       <c r="E125" t="n">
-        <v>3.759877904842798</v>
+        <v>3.759877904842795</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
@@ -4221,7 +4221,7 @@
         <v>23.08</v>
       </c>
       <c r="E126" t="n">
-        <v>5.573710084951854</v>
+        <v>5.573710084951856</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
@@ -4234,7 +4234,7 @@
         <v>33.34</v>
       </c>
       <c r="J126" t="n">
-        <v>17.67335511011885</v>
+        <v>17.67335511011884</v>
       </c>
     </row>
     <row r="127">
@@ -4324,7 +4324,7 @@
         <v>-106.07</v>
       </c>
       <c r="J129" t="n">
-        <v>-111.9529276764659</v>
+        <v>-111.9529276764658</v>
       </c>
     </row>
     <row r="130">
@@ -4341,7 +4341,7 @@
         <v>18.99</v>
       </c>
       <c r="E130" t="n">
-        <v>-6.326545031453091</v>
+        <v>-6.326545031453082</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
@@ -4371,7 +4371,7 @@
         <v>-7.15</v>
       </c>
       <c r="E131" t="n">
-        <v>5.753522507604937</v>
+        <v>5.753522507604933</v>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
@@ -4401,7 +4401,7 @@
         <v>-12.42</v>
       </c>
       <c r="E132" t="n">
-        <v>-9.487964206932313</v>
+        <v>-9.487964206932308</v>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
@@ -4414,7 +4414,7 @@
         <v>-79.23999999999999</v>
       </c>
       <c r="J132" t="n">
-        <v>2.175168700936714</v>
+        <v>2.175168700936701</v>
       </c>
     </row>
     <row r="133">
@@ -4444,7 +4444,7 @@
         <v>0.16</v>
       </c>
       <c r="J133" t="n">
-        <v>-9.835316815613893</v>
+        <v>-9.83531681561389</v>
       </c>
     </row>
     <row r="134">
@@ -4461,7 +4461,7 @@
         <v>7.59</v>
       </c>
       <c r="E134" t="n">
-        <v>2.260854026604043</v>
+        <v>2.260854026604044</v>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
@@ -4491,7 +4491,7 @@
         <v>33.23</v>
       </c>
       <c r="E135" t="n">
-        <v>8.630207148115176</v>
+        <v>8.630207148115179</v>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
@@ -4504,7 +4504,7 @@
         <v>-5.26</v>
       </c>
       <c r="J135" t="n">
-        <v>26.79197429333951</v>
+        <v>26.79197429333952</v>
       </c>
     </row>
     <row r="136">
@@ -4534,7 +4534,7 @@
         <v>18.75</v>
       </c>
       <c r="J136" t="n">
-        <v>12.31157834385436</v>
+        <v>12.31157834385435</v>
       </c>
     </row>
     <row r="137">
@@ -4624,7 +4624,7 @@
         <v>-12.94</v>
       </c>
       <c r="J139" t="n">
-        <v>14.27386857865905</v>
+        <v>14.27386857865906</v>
       </c>
     </row>
     <row r="140">
@@ -4654,7 +4654,7 @@
         <v>129.76</v>
       </c>
       <c r="J140" t="n">
-        <v>134.8787272225521</v>
+        <v>134.878727222552</v>
       </c>
     </row>
     <row r="141">
@@ -4671,7 +4671,7 @@
         <v>-54.35</v>
       </c>
       <c r="E141" t="n">
-        <v>-15.91156836371194</v>
+        <v>-15.91156836371196</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
@@ -4684,7 +4684,7 @@
         <v>-50.99</v>
       </c>
       <c r="J141" t="n">
-        <v>-42.56188294452075</v>
+        <v>-42.56188294452074</v>
       </c>
     </row>
     <row r="142">
@@ -4701,7 +4701,7 @@
         <v>-5.49</v>
       </c>
       <c r="E142" t="n">
-        <v>13.05477097021802</v>
+        <v>13.05477097021801</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
@@ -4714,7 +4714,7 @@
         <v>-48.88</v>
       </c>
       <c r="J142" t="n">
-        <v>-2.360803942617173</v>
+        <v>-2.360803942617167</v>
       </c>
     </row>
     <row r="143">
@@ -4731,7 +4731,7 @@
         <v>6.06</v>
       </c>
       <c r="E143" t="n">
-        <v>1.677129596888849</v>
+        <v>1.677129596888846</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
@@ -4744,7 +4744,7 @@
         <v>-45.03</v>
       </c>
       <c r="J143" t="n">
-        <v>-8.954421947276513</v>
+        <v>-8.954421947276522</v>
       </c>
     </row>
     <row r="144">
@@ -4761,7 +4761,7 @@
         <v>49.17</v>
       </c>
       <c r="E144" t="n">
-        <v>5.28471228027547</v>
+        <v>5.284712280275467</v>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
@@ -4774,7 +4774,7 @@
         <v>10.28</v>
       </c>
       <c r="J144" t="n">
-        <v>7.81003306247422</v>
+        <v>7.810033062474234</v>
       </c>
     </row>
     <row r="145">
@@ -4791,7 +4791,7 @@
         <v>3.25</v>
       </c>
       <c r="E145" t="n">
-        <v>2.714512210070807</v>
+        <v>2.7145122100708</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
@@ -4821,7 +4821,7 @@
         <v>15.09</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.738164147410334</v>
+        <v>-0.7381641474103314</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
@@ -4851,7 +4851,7 @@
         <v>-14.29</v>
       </c>
       <c r="E147" t="n">
-        <v>-15.73986247278618</v>
+        <v>-15.73986247278617</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
@@ -4864,7 +4864,7 @@
         <v>0.78</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.6957152844175868</v>
+        <v>-0.695715284417588</v>
       </c>
     </row>
     <row r="148">
@@ -4894,7 +4894,7 @@
         <v>25.81</v>
       </c>
       <c r="J148" t="n">
-        <v>22.16558073344642</v>
+        <v>22.16558073344643</v>
       </c>
     </row>
     <row r="149">
@@ -4911,7 +4911,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.104206139678502</v>
+        <v>-1.1042061396785</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
@@ -4924,7 +4924,7 @@
         <v>4.71</v>
       </c>
       <c r="J149" t="n">
-        <v>-13.37780418133533</v>
+        <v>-13.37780418133534</v>
       </c>
     </row>
     <row r="150">
@@ -4941,7 +4941,7 @@
         <v>0.93</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.327303922920359</v>
+        <v>-1.327303922920358</v>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="n">
@@ -4954,7 +4954,7 @@
         <v>23.85</v>
       </c>
       <c r="J150" t="n">
-        <v>-1.56005093661527</v>
+        <v>-1.560050936615275</v>
       </c>
     </row>
     <row r="151">
@@ -5001,7 +5001,7 @@
         <v>-17.72</v>
       </c>
       <c r="E152" t="n">
-        <v>3.449468051953121</v>
+        <v>3.449468051953117</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
@@ -5014,7 +5014,7 @@
         <v>54.45</v>
       </c>
       <c r="J152" t="n">
-        <v>24.74227759882444</v>
+        <v>24.74227759882443</v>
       </c>
     </row>
     <row r="153">
@@ -5031,7 +5031,7 @@
         <v>12.84</v>
       </c>
       <c r="E153" t="n">
-        <v>13.83032869897273</v>
+        <v>13.83032869897272</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
@@ -5061,7 +5061,7 @@
         <v>-3.18</v>
       </c>
       <c r="E154" t="n">
-        <v>-5.954015065385622</v>
+        <v>-5.954015065385623</v>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
@@ -5074,7 +5074,7 @@
         <v>18.83</v>
       </c>
       <c r="J154" t="n">
-        <v>8.473336487649995</v>
+        <v>8.47333648765</v>
       </c>
     </row>
     <row r="155">
@@ -5091,7 +5091,7 @@
         <v>-33.47</v>
       </c>
       <c r="E155" t="n">
-        <v>-1.47118814895182</v>
+        <v>-1.471188148951824</v>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
@@ -5151,7 +5151,7 @@
         <v>11.88</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.714107995228862</v>
+        <v>-1.714107995228863</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
@@ -5164,7 +5164,7 @@
         <v>-10.43</v>
       </c>
       <c r="J157" t="n">
-        <v>13.46651962069074</v>
+        <v>13.46651962069072</v>
       </c>
     </row>
     <row r="158">
@@ -5181,7 +5181,7 @@
         <v>24.11</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.01008695688677411</v>
+        <v>-0.01008695688678295</v>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
@@ -5211,7 +5211,7 @@
         <v>-2.58</v>
       </c>
       <c r="E159" t="n">
-        <v>-12.21024897536259</v>
+        <v>-12.21024897536258</v>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
@@ -5224,7 +5224,7 @@
         <v>13.02</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.4977959921206245</v>
+        <v>-0.4977959921206144</v>
       </c>
     </row>
     <row r="160">
@@ -5241,7 +5241,7 @@
         <v>-18.71</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.2942713817104492</v>
+        <v>-0.2942713817104454</v>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
@@ -5254,7 +5254,7 @@
         <v>60.57</v>
       </c>
       <c r="J160" t="n">
-        <v>-3.815410393733239</v>
+        <v>-3.815410393733247</v>
       </c>
     </row>
     <row r="161">
@@ -5271,7 +5271,7 @@
         <v>17.31</v>
       </c>
       <c r="E161" t="n">
-        <v>3.276555030333121</v>
+        <v>3.276555030333117</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
@@ -5284,7 +5284,7 @@
         <v>69.59</v>
       </c>
       <c r="J161" t="n">
-        <v>7.656035730558178</v>
+        <v>7.65603573055818</v>
       </c>
     </row>
     <row r="162">
@@ -5301,7 +5301,7 @@
         <v>-20.4</v>
       </c>
       <c r="E162" t="n">
-        <v>-7.049279548943966</v>
+        <v>-7.04927954894396</v>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
@@ -5331,7 +5331,7 @@
         <v>-14.34</v>
       </c>
       <c r="E163" t="n">
-        <v>-6.864513087942515</v>
+        <v>-6.864513087942513</v>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
@@ -5344,7 +5344,7 @@
         <v>24.71</v>
       </c>
       <c r="J163" t="n">
-        <v>-4.528876815357292</v>
+        <v>-4.528876815357303</v>
       </c>
     </row>
     <row r="164">
@@ -5374,7 +5374,7 @@
         <v>29.81</v>
       </c>
       <c r="J164" t="n">
-        <v>12.29731155133248</v>
+        <v>12.29731155133247</v>
       </c>
     </row>
     <row r="165">
@@ -5391,7 +5391,7 @@
         <v>9.16</v>
       </c>
       <c r="E165" t="n">
-        <v>5.016564164372051</v>
+        <v>5.016564164372047</v>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
@@ -5404,7 +5404,7 @@
         <v>-128.11</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.641137629749586</v>
+        <v>-9.641137629749609</v>
       </c>
     </row>
     <row r="166">
@@ -5421,7 +5421,7 @@
         <v>47.99</v>
       </c>
       <c r="E166" t="n">
-        <v>4.58422756648242</v>
+        <v>4.584227566482423</v>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
@@ -5451,7 +5451,7 @@
         <v>1.94</v>
       </c>
       <c r="E167" t="n">
-        <v>-6.258262437620679</v>
+        <v>-6.258262437620678</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -5464,7 +5464,7 @@
         <v>0.39</v>
       </c>
       <c r="J167" t="n">
-        <v>-5.089077049465369</v>
+        <v>-5.089077049465371</v>
       </c>
     </row>
     <row r="168">
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>-2.267435962035441</v>
+        <v>-2.267435962035448</v>
       </c>
     </row>
     <row r="169">
@@ -5511,7 +5511,7 @@
         <v>10.18</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.281561507926654</v>
+        <v>-1.281561507926659</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -5524,7 +5524,7 @@
         <v>-5.02</v>
       </c>
       <c r="J169" t="n">
-        <v>-5.525889916580721</v>
+        <v>-5.525889916580718</v>
       </c>
     </row>
     <row r="170">
@@ -5541,7 +5541,7 @@
         <v>8.27</v>
       </c>
       <c r="E170" t="n">
-        <v>5.02794211592175</v>
+        <v>5.027942115921748</v>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
@@ -5554,7 +5554,7 @@
         <v>-55.39</v>
       </c>
       <c r="J170" t="n">
-        <v>-4.665301174789324</v>
+        <v>-4.665301174789317</v>
       </c>
     </row>
     <row r="171">
@@ -5584,7 +5584,7 @@
         <v>-8.32</v>
       </c>
       <c r="J171" t="n">
-        <v>0.9957002977750686</v>
+        <v>0.9957002977750616</v>
       </c>
     </row>
     <row r="172">
@@ -5631,7 +5631,7 @@
         <v>7.91</v>
       </c>
       <c r="E173" t="n">
-        <v>1.694668670932055</v>
+        <v>1.69466867093206</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
@@ -5661,7 +5661,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>-2.996530133112237</v>
+        <v>-2.996530133112238</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
@@ -5691,7 +5691,7 @@
         <v>12.56</v>
       </c>
       <c r="E175" t="n">
-        <v>5.413350704084936</v>
+        <v>5.413350704084931</v>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
@@ -5704,7 +5704,7 @@
         <v>-7.06</v>
       </c>
       <c r="J175" t="n">
-        <v>3.257462517506305</v>
+        <v>3.257462517506315</v>
       </c>
     </row>
     <row r="176">
@@ -5721,7 +5721,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>-2.913421777507093</v>
+        <v>-2.913421777507089</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
@@ -5734,7 +5734,7 @@
         <v>-11.61</v>
       </c>
       <c r="J176" t="n">
-        <v>-4.787258151330343</v>
+        <v>-4.787258151330326</v>
       </c>
     </row>
     <row r="177">
@@ -5751,7 +5751,7 @@
         <v>13.09</v>
       </c>
       <c r="E177" t="n">
-        <v>3.044862867013464</v>
+        <v>3.044862867013469</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
@@ -5764,7 +5764,7 @@
         <v>-11.61</v>
       </c>
       <c r="J177" t="n">
-        <v>-9.98558795330657</v>
+        <v>-9.985587953306577</v>
       </c>
     </row>
     <row r="178">
@@ -5794,7 +5794,7 @@
         <v>-2.59</v>
       </c>
       <c r="J178" t="n">
-        <v>14.65144694144484</v>
+        <v>14.65144694144483</v>
       </c>
     </row>
     <row r="179">
@@ -5824,7 +5824,7 @@
         <v>-9.26</v>
       </c>
       <c r="J179" t="n">
-        <v>-20.76253313741559</v>
+        <v>-20.76253313741561</v>
       </c>
     </row>
     <row r="180">
@@ -5841,7 +5841,7 @@
         <v>6.65</v>
       </c>
       <c r="E180" t="n">
-        <v>1.594392660167169</v>
+        <v>1.59439266016717</v>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
@@ -5854,7 +5854,7 @@
         <v>-7.61</v>
       </c>
       <c r="J180" t="n">
-        <v>2.85499557125739</v>
+        <v>2.8549955712574</v>
       </c>
     </row>
     <row r="181">
@@ -5871,7 +5871,7 @@
         <v>10.36</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2026218348526679</v>
+        <v>0.2026218348526628</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
@@ -5884,7 +5884,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="J181" t="n">
-        <v>-5.85779184275283</v>
+        <v>-5.857791842752835</v>
       </c>
     </row>
   </sheetData>
@@ -5972,7 +5972,7 @@
         <v>8.73</v>
       </c>
       <c r="E2" t="n">
-        <v>2.793543707652944</v>
+        <v>2.793543707652943</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
@@ -5985,7 +5985,7 @@
         <v>-5.88</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.87477407999543</v>
+        <v>-11.87477407999542</v>
       </c>
     </row>
     <row r="3">
@@ -6002,7 +6002,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8543071074908878</v>
+        <v>-0.8543071074908837</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -6062,7 +6062,7 @@
         <v>8.84</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.765032591798276</v>
+        <v>-0.7650325917982765</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
@@ -6092,7 +6092,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.856503007197119</v>
+        <v>-0.8565030071971156</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -6122,7 +6122,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.25750160213216</v>
+        <v>-12.25750160213217</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
@@ -6135,7 +6135,7 @@
         <v>-4.55</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.757516127358019</v>
+        <v>-2.757516127358014</v>
       </c>
     </row>
     <row r="8">
@@ -6152,7 +6152,7 @@
         <v>8.66</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.058303417663187</v>
+        <v>-6.058303417663185</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -6165,7 +6165,7 @@
         <v>-4.55</v>
       </c>
       <c r="J8" t="n">
-        <v>28.56734091109593</v>
+        <v>28.56734091109594</v>
       </c>
     </row>
     <row r="9">
@@ -6182,7 +6182,7 @@
         <v>8.06</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5916669388355652</v>
+        <v>-0.5916669388355684</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
@@ -6212,7 +6212,7 @@
         <v>7.87</v>
       </c>
       <c r="E10" t="n">
-        <v>6.200554364700379</v>
+        <v>6.200554364700378</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
@@ -6225,7 +6225,7 @@
         <v>-5.73</v>
       </c>
       <c r="J10" t="n">
-        <v>-39.59127350015793</v>
+        <v>-39.59127350015791</v>
       </c>
     </row>
     <row r="11">
@@ -6242,7 +6242,7 @@
         <v>7.47</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6314423355982884</v>
+        <v>0.6314423355982902</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
@@ -6255,7 +6255,7 @@
         <v>-5.49</v>
       </c>
       <c r="J11" t="n">
-        <v>-7.347027276853492</v>
+        <v>-7.347027276853495</v>
       </c>
     </row>
     <row r="12">
@@ -6272,7 +6272,7 @@
         <v>7.67</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.587956783570971</v>
+        <v>-5.587956783570973</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
@@ -6285,7 +6285,7 @@
         <v>-4.39</v>
       </c>
       <c r="J12" t="n">
-        <v>3.876267195472667</v>
+        <v>3.876267195472664</v>
       </c>
     </row>
     <row r="13">
@@ -6302,7 +6302,7 @@
         <v>8.09</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.56849629793588</v>
+        <v>-2.568496297935877</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
@@ -6315,7 +6315,7 @@
         <v>-4.94</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.687702411525555</v>
+        <v>-1.68770241152555</v>
       </c>
     </row>
     <row r="14">
@@ -6345,7 +6345,7 @@
         <v>-4.71</v>
       </c>
       <c r="J14" t="n">
-        <v>-14.16449799569236</v>
+        <v>-14.16449799569237</v>
       </c>
     </row>
     <row r="15">
@@ -6362,7 +6362,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>8.915968272917965</v>
+        <v>8.915968272917969</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
@@ -6375,7 +6375,7 @@
         <v>-4.31</v>
       </c>
       <c r="J15" t="n">
-        <v>3.655804995198643</v>
+        <v>3.655804995198646</v>
       </c>
     </row>
     <row r="16">
@@ -6392,7 +6392,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3632558920225222</v>
+        <v>-0.3632558920225232</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
@@ -6422,7 +6422,7 @@
         <v>8.539999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>1.013902083573507</v>
+        <v>1.013902083573505</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
@@ -6435,7 +6435,7 @@
         <v>-78.69</v>
       </c>
       <c r="J17" t="n">
-        <v>18.50363509094943</v>
+        <v>18.50363509094944</v>
       </c>
     </row>
     <row r="18">
@@ -6452,7 +6452,7 @@
         <v>-0.06</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.50006012350768</v>
+        <v>-3.500060123507681</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
@@ -6465,7 +6465,7 @@
         <v>45.82</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.740681212250563</v>
+        <v>-2.740681212250558</v>
       </c>
     </row>
     <row r="19">
@@ -6482,7 +6482,7 @@
         <v>16.84</v>
       </c>
       <c r="E19" t="n">
-        <v>9.807418846577789</v>
+        <v>9.807418846577791</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
@@ -6495,7 +6495,7 @@
         <v>11.92</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3494247361598322</v>
+        <v>0.3494247361598345</v>
       </c>
     </row>
     <row r="20">
@@ -6512,7 +6512,7 @@
         <v>13.6</v>
       </c>
       <c r="E20" t="n">
-        <v>4.875716103714355</v>
+        <v>4.875716103714352</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
@@ -6542,7 +6542,7 @@
         <v>16.22</v>
       </c>
       <c r="E21" t="n">
-        <v>2.422376116715081</v>
+        <v>2.422376116715078</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
@@ -6555,7 +6555,7 @@
         <v>-0.71</v>
       </c>
       <c r="J21" t="n">
-        <v>1.180578453522207</v>
+        <v>1.180578453522211</v>
       </c>
     </row>
     <row r="22">
@@ -6572,7 +6572,7 @@
         <v>7.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2901280027222729</v>
+        <v>0.290128002722272</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -6585,7 +6585,7 @@
         <v>-5.18</v>
       </c>
       <c r="J22" t="n">
-        <v>-5.278358277621732</v>
+        <v>-5.278358277621729</v>
       </c>
     </row>
     <row r="23">
@@ -6602,7 +6602,7 @@
         <v>3.04</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.894996744790141</v>
+        <v>-3.89499674479014</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
@@ -6632,7 +6632,7 @@
         <v>5.99</v>
       </c>
       <c r="E24" t="n">
-        <v>8.721913441736524</v>
+        <v>8.721913441736527</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
@@ -6645,7 +6645,7 @@
         <v>4.08</v>
       </c>
       <c r="J24" t="n">
-        <v>21.83122475319616</v>
+        <v>21.83122475319617</v>
       </c>
     </row>
     <row r="25">
@@ -6662,7 +6662,7 @@
         <v>12.89</v>
       </c>
       <c r="E25" t="n">
-        <v>2.521833522646108</v>
+        <v>2.521833522646111</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -6675,7 +6675,7 @@
         <v>2.51</v>
       </c>
       <c r="J25" t="n">
-        <v>8.273838245670019</v>
+        <v>8.273838245670008</v>
       </c>
     </row>
     <row r="26">
@@ -6692,7 +6692,7 @@
         <v>8.48</v>
       </c>
       <c r="E26" t="n">
-        <v>4.570707748685979</v>
+        <v>4.570707748685976</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -6705,7 +6705,7 @@
         <v>-152.2</v>
       </c>
       <c r="J26" t="n">
-        <v>-16.13959410174747</v>
+        <v>-16.13959410174748</v>
       </c>
     </row>
     <row r="27">
@@ -6722,7 +6722,7 @@
         <v>10.48</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.261000877238899</v>
+        <v>-1.261000877238904</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
@@ -6735,7 +6735,7 @@
         <v>-14.51</v>
       </c>
       <c r="J27" t="n">
-        <v>-3.908010711388076</v>
+        <v>-3.908010711388078</v>
       </c>
     </row>
     <row r="28">
@@ -6752,7 +6752,7 @@
         <v>3.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6951912473626459</v>
+        <v>0.6951912473626436</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
@@ -6782,7 +6782,7 @@
         <v>14.99</v>
       </c>
       <c r="E29" t="n">
-        <v>2.264135213191409</v>
+        <v>2.264135213191408</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
@@ -6812,7 +6812,7 @@
         <v>9.17</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9484620766178764</v>
+        <v>0.9484620766178753</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
@@ -6825,7 +6825,7 @@
         <v>2.43</v>
       </c>
       <c r="J30" t="n">
-        <v>6.163161961840057</v>
+        <v>6.16316196184005</v>
       </c>
     </row>
     <row r="31">
@@ -6842,7 +6842,7 @@
         <v>3.38</v>
       </c>
       <c r="E31" t="n">
-        <v>11.5390920939823</v>
+        <v>11.53909209398229</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
@@ -6872,7 +6872,7 @@
         <v>3.85</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7812887300762871</v>
+        <v>0.7812887300762853</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
@@ -6885,7 +6885,7 @@
         <v>-94.84999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>-25.46073552060891</v>
+        <v>-25.46073552060892</v>
       </c>
     </row>
     <row r="33">
@@ -6902,7 +6902,7 @@
         <v>16.61</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.9205467043932569</v>
+        <v>-0.9205467043932587</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
@@ -6915,7 +6915,7 @@
         <v>-11.69</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.5971591665292137</v>
+        <v>-0.5971591665292094</v>
       </c>
     </row>
     <row r="34">
@@ -6932,7 +6932,7 @@
         <v>12.31</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.87215938376617</v>
+        <v>-3.872159383766169</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -6945,7 +6945,7 @@
         <v>2.59</v>
       </c>
       <c r="J34" t="n">
-        <v>-11.22886082041824</v>
+        <v>-11.22886082041823</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>9.99</v>
       </c>
       <c r="E35" t="n">
-        <v>7.164049672032768</v>
+        <v>7.164049672032772</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
@@ -6975,7 +6975,7 @@
         <v>1.57</v>
       </c>
       <c r="J35" t="n">
-        <v>-18.99292247793638</v>
+        <v>-18.99292247793639</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>12.47</v>
       </c>
       <c r="J36" t="n">
-        <v>23.14076402399017</v>
+        <v>23.14076402399018</v>
       </c>
     </row>
     <row r="37">
@@ -7022,7 +7022,7 @@
         <v>9.42</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.702263004674486</v>
+        <v>-1.702263004674487</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
@@ -7035,7 +7035,7 @@
         <v>5.96</v>
       </c>
       <c r="J37" t="n">
-        <v>9.28790123638217</v>
+        <v>9.287901236382167</v>
       </c>
     </row>
     <row r="38">
@@ -7052,7 +7052,7 @@
         <v>28.33</v>
       </c>
       <c r="E38" t="n">
-        <v>6.225336961633428</v>
+        <v>6.225336961633427</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
@@ -7065,7 +7065,7 @@
         <v>9.41</v>
       </c>
       <c r="J38" t="n">
-        <v>8.548431942968245</v>
+        <v>8.548431942968246</v>
       </c>
     </row>
     <row r="39">
@@ -7082,7 +7082,7 @@
         <v>1.94</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9116622737512227</v>
+        <v>0.911662273751218</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
@@ -7095,7 +7095,7 @@
         <v>-25.42</v>
       </c>
       <c r="J39" t="n">
-        <v>-15.12761380236147</v>
+        <v>-15.12761380236146</v>
       </c>
     </row>
     <row r="40">
@@ -7112,7 +7112,7 @@
         <v>6.12</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7581765990604633</v>
+        <v>0.7581765990604586</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
@@ -7125,7 +7125,7 @@
         <v>-10.12</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5533012964904009</v>
+        <v>0.5533012964904022</v>
       </c>
     </row>
     <row r="41">
@@ -7142,7 +7142,7 @@
         <v>-3.53</v>
       </c>
       <c r="E41" t="n">
-        <v>1.28637737219333</v>
+        <v>1.286377372193325</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
@@ -7155,7 +7155,7 @@
         <v>12.47</v>
       </c>
       <c r="J41" t="n">
-        <v>20.38883950270334</v>
+        <v>20.38883950270333</v>
       </c>
     </row>
     <row r="42">
@@ -7172,7 +7172,7 @@
         <v>17.34</v>
       </c>
       <c r="E42" t="n">
-        <v>4.435735613515428</v>
+        <v>4.435735613515426</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
@@ -7185,7 +7185,7 @@
         <v>15.77</v>
       </c>
       <c r="J42" t="n">
-        <v>8.290541728592768</v>
+        <v>8.290541728592761</v>
       </c>
     </row>
     <row r="43">
@@ -7202,7 +7202,7 @@
         <v>4.16</v>
       </c>
       <c r="E43" t="n">
-        <v>5.279767893123389</v>
+        <v>5.279767893123386</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
@@ -7215,7 +7215,7 @@
         <v>-29.66</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.696734930476511</v>
+        <v>-2.696734930476508</v>
       </c>
     </row>
     <row r="44">
@@ -7245,7 +7245,7 @@
         <v>16.24</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.495558478600307</v>
+        <v>-9.495558478600312</v>
       </c>
     </row>
     <row r="45">
@@ -7262,7 +7262,7 @@
         <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.228269012060188</v>
+        <v>-1.228269012060186</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
@@ -7292,7 +7292,7 @@
         <v>27.63</v>
       </c>
       <c r="E46" t="n">
-        <v>8.119890367214213</v>
+        <v>8.119890367214216</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
@@ -7305,7 +7305,7 @@
         <v>-17.97</v>
       </c>
       <c r="J46" t="n">
-        <v>-3.139153605456913</v>
+        <v>-3.139153605456923</v>
       </c>
     </row>
     <row r="47">
@@ -7322,7 +7322,7 @@
         <v>28.25</v>
       </c>
       <c r="E47" t="n">
-        <v>5.378335821517146</v>
+        <v>5.378335821517148</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
@@ -7335,7 +7335,7 @@
         <v>23.22</v>
       </c>
       <c r="J47" t="n">
-        <v>5.274826081826279</v>
+        <v>5.274826081826284</v>
       </c>
     </row>
     <row r="48">
@@ -7365,7 +7365,7 @@
         <v>13.89</v>
       </c>
       <c r="J48" t="n">
-        <v>-9.031163174573454</v>
+        <v>-9.03116317457345</v>
       </c>
     </row>
     <row r="49">
@@ -7485,7 +7485,7 @@
         <v>-68.41</v>
       </c>
       <c r="J52" t="n">
-        <v>-27.38208870890742</v>
+        <v>-27.38208870890743</v>
       </c>
     </row>
     <row r="53">
@@ -7532,7 +7532,7 @@
         <v>-12.52</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04848108404197089</v>
+        <v>0.04848108404196855</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
@@ -7545,7 +7545,7 @@
         <v>35.7</v>
       </c>
       <c r="J54" t="n">
-        <v>46.0035353345359</v>
+        <v>46.00353533453589</v>
       </c>
     </row>
     <row r="55">
@@ -7575,7 +7575,7 @@
         <v>33.66</v>
       </c>
       <c r="J55" t="n">
-        <v>41.28237892276358</v>
+        <v>41.28237892276356</v>
       </c>
     </row>
     <row r="56">
@@ -7635,7 +7635,7 @@
         <v>-33.42</v>
       </c>
       <c r="J57" t="n">
-        <v>4.880434128622138</v>
+        <v>4.880434128622142</v>
       </c>
     </row>
     <row r="58">
@@ -7695,7 +7695,7 @@
         <v>75.63</v>
       </c>
       <c r="J59" t="n">
-        <v>-3.87254849531281</v>
+        <v>-3.872548495312808</v>
       </c>
     </row>
     <row r="60">
@@ -7712,7 +7712,7 @@
         <v>-9.68</v>
       </c>
       <c r="E60" t="n">
-        <v>-19.42283435211488</v>
+        <v>-19.42283435211489</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
@@ -7755,7 +7755,7 @@
         <v>32.87</v>
       </c>
       <c r="J61" t="n">
-        <v>24.2163340668524</v>
+        <v>24.21633406685239</v>
       </c>
     </row>
     <row r="62">
@@ -7772,7 +7772,7 @@
         <v>-18.56</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.943437097479151</v>
+        <v>-8.94343709747915</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
@@ -7785,7 +7785,7 @@
         <v>-27.77</v>
       </c>
       <c r="J62" t="n">
-        <v>-53.39035483935056</v>
+        <v>-53.39035483935057</v>
       </c>
     </row>
     <row r="63">
@@ -7815,7 +7815,7 @@
         <v>43.86</v>
       </c>
       <c r="J63" t="n">
-        <v>70.60562221530219</v>
+        <v>70.60562221530218</v>
       </c>
     </row>
     <row r="64">
@@ -7862,7 +7862,7 @@
         <v>-13.57</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.281298468379827</v>
+        <v>-8.281298468379815</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
@@ -7875,7 +7875,7 @@
         <v>-27.3</v>
       </c>
       <c r="J65" t="n">
-        <v>-24.64303359235055</v>
+        <v>-24.64303359235051</v>
       </c>
     </row>
     <row r="66">
@@ -7922,7 +7922,7 @@
         <v>-18.47</v>
       </c>
       <c r="E67" t="n">
-        <v>-25.70437452779247</v>
+        <v>-25.70437452779248</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
@@ -7952,7 +7952,7 @@
         <v>-6.87</v>
       </c>
       <c r="E68" t="n">
-        <v>7.013089635123676</v>
+        <v>7.013089635123675</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
@@ -7965,7 +7965,7 @@
         <v>18.83</v>
       </c>
       <c r="J68" t="n">
-        <v>33.10441243341336</v>
+        <v>33.10441243341337</v>
       </c>
     </row>
     <row r="69">
@@ -7995,7 +7995,7 @@
         <v>20.48</v>
       </c>
       <c r="J69" t="n">
-        <v>14.13563249392846</v>
+        <v>14.13563249392842</v>
       </c>
     </row>
     <row r="70">
@@ -8025,7 +8025,7 @@
         <v>5.18</v>
       </c>
       <c r="J70" t="n">
-        <v>-59.71975559826176</v>
+        <v>-59.71975559826177</v>
       </c>
     </row>
     <row r="71">
@@ -8042,7 +8042,7 @@
         <v>-45.09</v>
       </c>
       <c r="E71" t="n">
-        <v>-22.09074454748291</v>
+        <v>-22.0907445474829</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
@@ -8055,7 +8055,7 @@
         <v>13.57</v>
       </c>
       <c r="J71" t="n">
-        <v>0.366041871945353</v>
+        <v>0.366041871945339</v>
       </c>
     </row>
     <row r="72">
@@ -8072,7 +8072,7 @@
         <v>-6.26</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02058436748074172</v>
+        <v>0.02058436748073235</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
@@ -8085,7 +8085,7 @@
         <v>31.54</v>
       </c>
       <c r="J72" t="n">
-        <v>-2.968750661509894</v>
+        <v>-2.968750661509898</v>
       </c>
     </row>
     <row r="73">
@@ -8115,7 +8115,7 @@
         <v>-37.89</v>
       </c>
       <c r="J73" t="n">
-        <v>-29.66946205417775</v>
+        <v>-29.66946205417771</v>
       </c>
     </row>
     <row r="74">
@@ -8145,7 +8145,7 @@
         <v>-59</v>
       </c>
       <c r="J74" t="n">
-        <v>-72.69865289859217</v>
+        <v>-72.69865289859216</v>
       </c>
     </row>
     <row r="75">
@@ -8205,7 +8205,7 @@
         <v>-13.89</v>
       </c>
       <c r="J76" t="n">
-        <v>-8.452990514453754</v>
+        <v>-8.452990514453763</v>
       </c>
     </row>
     <row r="77">
@@ -8252,7 +8252,7 @@
         <v>-1.69</v>
       </c>
       <c r="E78" t="n">
-        <v>-31.81429883706816</v>
+        <v>-31.81429883706817</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
@@ -8282,7 +8282,7 @@
         <v>-9.960000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>14.94684698582211</v>
+        <v>14.9468469858221</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
@@ -8295,7 +8295,7 @@
         <v>27.77</v>
       </c>
       <c r="J79" t="n">
-        <v>28.23676396465007</v>
+        <v>28.23676396465008</v>
       </c>
     </row>
     <row r="80">
@@ -8342,7 +8342,7 @@
         <v>-58.14</v>
       </c>
       <c r="E81" t="n">
-        <v>-63.15571161144686</v>
+        <v>-63.15571161144685</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
@@ -8385,7 +8385,7 @@
         <v>37.03</v>
       </c>
       <c r="J82" t="n">
-        <v>57.18513912736309</v>
+        <v>57.1851391273631</v>
       </c>
     </row>
     <row r="83">
@@ -8415,7 +8415,7 @@
         <v>9.65</v>
       </c>
       <c r="J83" t="n">
-        <v>39.68856511143863</v>
+        <v>39.68856511143861</v>
       </c>
     </row>
     <row r="84">
@@ -8432,7 +8432,7 @@
         <v>14.62</v>
       </c>
       <c r="E84" t="n">
-        <v>20.85722539016739</v>
+        <v>20.8572253901674</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
@@ -8475,7 +8475,7 @@
         <v>26.05</v>
       </c>
       <c r="J85" t="n">
-        <v>6.85249790164848</v>
+        <v>6.852497901648499</v>
       </c>
     </row>
     <row r="86">
@@ -8505,7 +8505,7 @@
         <v>50.05</v>
       </c>
       <c r="J86" t="n">
-        <v>5.345147196300936</v>
+        <v>5.345147196300914</v>
       </c>
     </row>
     <row r="87">
@@ -8535,7 +8535,7 @@
         <v>26.44</v>
       </c>
       <c r="J87" t="n">
-        <v>-7.132774686735051</v>
+        <v>-7.13277468673504</v>
       </c>
     </row>
     <row r="88">
@@ -8552,7 +8552,7 @@
         <v>12.87</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6926010592228118</v>
+        <v>0.6926010592228082</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
@@ -8582,7 +8582,7 @@
         <v>-37.99</v>
       </c>
       <c r="E89" t="n">
-        <v>-8.631154631435351</v>
+        <v>-8.631154631435345</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
@@ -8595,7 +8595,7 @@
         <v>-36.17</v>
       </c>
       <c r="J89" t="n">
-        <v>-40.53451664637407</v>
+        <v>-40.53451664637406</v>
       </c>
     </row>
     <row r="90">
@@ -8612,7 +8612,7 @@
         <v>12.05</v>
       </c>
       <c r="E90" t="n">
-        <v>10.85383694607271</v>
+        <v>10.8538369460727</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
@@ -8625,7 +8625,7 @@
         <v>-75.63</v>
       </c>
       <c r="J90" t="n">
-        <v>97.1953025406054</v>
+        <v>97.19530254060538</v>
       </c>
     </row>
     <row r="91">
@@ -8642,7 +8642,7 @@
         <v>11.8</v>
       </c>
       <c r="E91" t="n">
-        <v>18.42838499550919</v>
+        <v>18.42838499550918</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
@@ -8655,7 +8655,7 @@
         <v>60.8</v>
       </c>
       <c r="J91" t="n">
-        <v>41.28778385007488</v>
+        <v>41.2877838500749</v>
       </c>
     </row>
     <row r="92">
@@ -8685,7 +8685,7 @@
         <v>50.68</v>
       </c>
       <c r="J92" t="n">
-        <v>78.84051870617846</v>
+        <v>78.84051870617844</v>
       </c>
     </row>
     <row r="93">
@@ -8715,7 +8715,7 @@
         <v>22.67</v>
       </c>
       <c r="J93" t="n">
-        <v>-33.75141252027409</v>
+        <v>-33.7514125202741</v>
       </c>
     </row>
     <row r="94">
@@ -8805,7 +8805,7 @@
         <v>45.58</v>
       </c>
       <c r="J96" t="n">
-        <v>61.90219091519577</v>
+        <v>61.90219091519576</v>
       </c>
     </row>
     <row r="97">
@@ -8822,7 +8822,7 @@
         <v>-2.46</v>
       </c>
       <c r="E97" t="n">
-        <v>2.159892157761083</v>
+        <v>2.159892157761082</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
@@ -8835,7 +8835,7 @@
         <v>36.64</v>
       </c>
       <c r="J97" t="n">
-        <v>10.3017303106493</v>
+        <v>10.30173031064931</v>
       </c>
     </row>
     <row r="98">
@@ -8852,7 +8852,7 @@
         <v>6.1</v>
       </c>
       <c r="E98" t="n">
-        <v>7.094273588350081</v>
+        <v>7.094273588350086</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
@@ -8865,7 +8865,7 @@
         <v>44.17</v>
       </c>
       <c r="J98" t="n">
-        <v>19.43643867344167</v>
+        <v>19.43643867344165</v>
       </c>
     </row>
     <row r="99">
@@ -8882,7 +8882,7 @@
         <v>5.3</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.841954600458932</v>
+        <v>-1.841954600458936</v>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
@@ -8895,7 +8895,7 @@
         <v>9.02</v>
       </c>
       <c r="J99" t="n">
-        <v>-6.663015627665844</v>
+        <v>-6.663015627665849</v>
       </c>
     </row>
     <row r="100">
@@ -8942,7 +8942,7 @@
         <v>-19.08</v>
       </c>
       <c r="E101" t="n">
-        <v>-5.817480320715213</v>
+        <v>-5.817480320715211</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
@@ -8985,7 +8985,7 @@
         <v>11.3</v>
       </c>
       <c r="J102" t="n">
-        <v>18.25527012737946</v>
+        <v>18.25527012737945</v>
       </c>
     </row>
     <row r="103">
@@ -9015,7 +9015,7 @@
         <v>38.52</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1652105943965002</v>
+        <v>0.1652105943965043</v>
       </c>
     </row>
     <row r="104">
@@ -9032,7 +9032,7 @@
         <v>5.51</v>
       </c>
       <c r="E104" t="n">
-        <v>2.26813464709524</v>
+        <v>2.268134647095238</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
@@ -9062,7 +9062,7 @@
         <v>-16.55</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.214638985781173</v>
+        <v>-3.214638985781174</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
@@ -9105,7 +9105,7 @@
         <v>-4.47</v>
       </c>
       <c r="J106" t="n">
-        <v>41.46983643565945</v>
+        <v>41.46983643565942</v>
       </c>
     </row>
     <row r="107">
@@ -9135,7 +9135,7 @@
         <v>28.95</v>
       </c>
       <c r="J107" t="n">
-        <v>-1.979349856636556</v>
+        <v>-1.979349856636544</v>
       </c>
     </row>
     <row r="108">
@@ -9212,7 +9212,7 @@
         <v>-4.99</v>
       </c>
       <c r="E110" t="n">
-        <v>8.838557947449591</v>
+        <v>8.838557947449589</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
@@ -9225,7 +9225,7 @@
         <v>-5.33</v>
       </c>
       <c r="J110" t="n">
-        <v>-7.252050053275759</v>
+        <v>-7.252050053275787</v>
       </c>
     </row>
     <row r="111">
@@ -9285,7 +9285,7 @@
         <v>35.38</v>
       </c>
       <c r="J112" t="n">
-        <v>1.38890679095134</v>
+        <v>1.388906790951324</v>
       </c>
     </row>
     <row r="113">
@@ -9315,7 +9315,7 @@
         <v>24.4</v>
       </c>
       <c r="J113" t="n">
-        <v>14.52127184364563</v>
+        <v>14.52127184364565</v>
       </c>
     </row>
     <row r="114">
@@ -9332,7 +9332,7 @@
         <v>18.77</v>
       </c>
       <c r="E114" t="n">
-        <v>6.022916424156455</v>
+        <v>6.022916424156453</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
@@ -9405,7 +9405,7 @@
         <v>-4.47</v>
       </c>
       <c r="J116" t="n">
-        <v>27.53414701703073</v>
+        <v>27.53414701703072</v>
       </c>
     </row>
     <row r="117">
@@ -9422,7 +9422,7 @@
         <v>-1.39</v>
       </c>
       <c r="E117" t="n">
-        <v>8.328233761477641</v>
+        <v>8.328233761477636</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
@@ -9435,7 +9435,7 @@
         <v>39.07</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2960744446481254</v>
+        <v>0.296074444648123</v>
       </c>
     </row>
     <row r="118">
@@ -9465,7 +9465,7 @@
         <v>28.87</v>
       </c>
       <c r="J118" t="n">
-        <v>35.93688629926322</v>
+        <v>35.93688629926323</v>
       </c>
     </row>
     <row r="119">
@@ -9482,7 +9482,7 @@
         <v>-7.17</v>
       </c>
       <c r="E119" t="n">
-        <v>6.96612168926305</v>
+        <v>6.966121689263045</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
@@ -9512,7 +9512,7 @@
         <v>19.04</v>
       </c>
       <c r="E120" t="n">
-        <v>8.127699511110437</v>
+        <v>8.127699511110443</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
@@ -9542,7 +9542,7 @@
         <v>31.36</v>
       </c>
       <c r="E121" t="n">
-        <v>72.37893188824532</v>
+        <v>72.3789318882453</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
@@ -9555,7 +9555,7 @@
         <v>11.38</v>
       </c>
       <c r="J121" t="n">
-        <v>-14.49760150887594</v>
+        <v>-14.49760150887595</v>
       </c>
     </row>
     <row r="122">
@@ -9615,7 +9615,7 @@
         <v>-75.16</v>
       </c>
       <c r="J123" t="n">
-        <v>-5.434422507108686</v>
+        <v>-5.434422507108692</v>
       </c>
     </row>
     <row r="124">
@@ -9632,7 +9632,7 @@
         <v>14.37</v>
       </c>
       <c r="E124" t="n">
-        <v>17.99168644658164</v>
+        <v>17.99168644658163</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
@@ -9675,7 +9675,7 @@
         <v>107.95</v>
       </c>
       <c r="J125" t="n">
-        <v>86.12808678125032</v>
+        <v>86.12808678125029</v>
       </c>
     </row>
     <row r="126">
@@ -9692,7 +9692,7 @@
         <v>37.38</v>
       </c>
       <c r="E126" t="n">
-        <v>68.09071627961291</v>
+        <v>68.09071627961292</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
@@ -9705,7 +9705,7 @@
         <v>14.04</v>
       </c>
       <c r="J126" t="n">
-        <v>21.9066215602792</v>
+        <v>21.90662156027919</v>
       </c>
     </row>
     <row r="127">
@@ -9722,7 +9722,7 @@
         <v>1.93</v>
       </c>
       <c r="E127" t="n">
-        <v>7.943986626923911</v>
+        <v>7.943986626923913</v>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
@@ -9765,7 +9765,7 @@
         <v>25.73</v>
       </c>
       <c r="J128" t="n">
-        <v>15.31395873432235</v>
+        <v>15.31395873432233</v>
       </c>
     </row>
     <row r="129">
@@ -9812,7 +9812,7 @@
         <v>14.06</v>
       </c>
       <c r="E130" t="n">
-        <v>-8.86455154031573</v>
+        <v>-8.864551540315734</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
@@ -9885,7 +9885,7 @@
         <v>52.88</v>
       </c>
       <c r="J132" t="n">
-        <v>36.44243760725148</v>
+        <v>36.4424376072515</v>
       </c>
     </row>
     <row r="133">
@@ -9902,7 +9902,7 @@
         <v>30.8</v>
       </c>
       <c r="E133" t="n">
-        <v>16.79148078051025</v>
+        <v>16.79148078051026</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
@@ -9945,7 +9945,7 @@
         <v>15.46</v>
       </c>
       <c r="J134" t="n">
-        <v>-7.774597060570533</v>
+        <v>-7.774597060570515</v>
       </c>
     </row>
     <row r="135">
@@ -9992,7 +9992,7 @@
         <v>-1.28</v>
       </c>
       <c r="E136" t="n">
-        <v>6.344905094808698</v>
+        <v>6.344905094808703</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
@@ -10005,7 +10005,7 @@
         <v>39.54</v>
       </c>
       <c r="J136" t="n">
-        <v>48.71629640425596</v>
+        <v>48.71629640425597</v>
       </c>
     </row>
     <row r="137">
@@ -10035,7 +10035,7 @@
         <v>-29.42</v>
       </c>
       <c r="J137" t="n">
-        <v>-34.4432139121697</v>
+        <v>-34.44321391216971</v>
       </c>
     </row>
     <row r="138">
@@ -10082,7 +10082,7 @@
         <v>19.15</v>
       </c>
       <c r="E139" t="n">
-        <v>6.388946755119828</v>
+        <v>6.388946755119837</v>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
@@ -10095,7 +10095,7 @@
         <v>48.41</v>
       </c>
       <c r="J139" t="n">
-        <v>2.090387891492119</v>
+        <v>2.090387891492128</v>
       </c>
     </row>
     <row r="140">
@@ -10112,7 +10112,7 @@
         <v>7.02</v>
       </c>
       <c r="E140" t="n">
-        <v>-2.249920074570597</v>
+        <v>-2.249920074570599</v>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
@@ -10142,7 +10142,7 @@
         <v>-42.93</v>
       </c>
       <c r="E141" t="n">
-        <v>-19.7506632073718</v>
+        <v>-19.75066320737181</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
@@ -10155,7 +10155,7 @@
         <v>34.91</v>
       </c>
       <c r="J141" t="n">
-        <v>-13.44670233864382</v>
+        <v>-13.44670233864383</v>
       </c>
     </row>
     <row r="142">
@@ -10172,7 +10172,7 @@
         <v>-18.61</v>
       </c>
       <c r="E142" t="n">
-        <v>6.170543687614042</v>
+        <v>6.170543687614044</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
@@ -10275,7 +10275,7 @@
         <v>4.47</v>
       </c>
       <c r="J145" t="n">
-        <v>-7.902581784994068</v>
+        <v>-7.902581784994057</v>
       </c>
     </row>
     <row r="146">
@@ -10305,7 +10305,7 @@
         <v>14.2</v>
       </c>
       <c r="J146" t="n">
-        <v>19.91017862690432</v>
+        <v>19.91017862690433</v>
       </c>
     </row>
     <row r="147">
@@ -10352,7 +10352,7 @@
         <v>-36.52</v>
       </c>
       <c r="E148" t="n">
-        <v>-3.978936429695271</v>
+        <v>-3.97893642969527</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
@@ -10412,7 +10412,7 @@
         <v>47.98</v>
       </c>
       <c r="E150" t="n">
-        <v>7.089550583023891</v>
+        <v>7.089550583023887</v>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="n">
@@ -10472,7 +10472,7 @@
         <v>58.73</v>
       </c>
       <c r="E152" t="n">
-        <v>27.20079621072388</v>
+        <v>27.20079621072387</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
@@ -10502,7 +10502,7 @@
         <v>24.9</v>
       </c>
       <c r="E153" t="n">
-        <v>8.874408572971916</v>
+        <v>8.874408572971911</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
@@ -10592,7 +10592,7 @@
         <v>5.11</v>
       </c>
       <c r="E156" t="n">
-        <v>1.801191914003014</v>
+        <v>1.801191914003017</v>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
@@ -10605,7 +10605,7 @@
         <v>56.56</v>
       </c>
       <c r="J156" t="n">
-        <v>44.28663195211228</v>
+        <v>44.28663195211226</v>
       </c>
     </row>
     <row r="157">
@@ -10622,7 +10622,7 @@
         <v>17.65</v>
       </c>
       <c r="E157" t="n">
-        <v>1.033742382152032</v>
+        <v>1.033742382152029</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
@@ -10665,7 +10665,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="J158" t="n">
-        <v>-5.397444784145145</v>
+        <v>-5.39744478414514</v>
       </c>
     </row>
     <row r="159">
@@ -10712,7 +10712,7 @@
         <v>-31.8</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6445664734699913</v>
+        <v>0.6445664734699947</v>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
@@ -10742,7 +10742,7 @@
         <v>-29.11</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.090382732200179</v>
+        <v>-1.090382732200177</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
@@ -10755,7 +10755,7 @@
         <v>-33.34</v>
       </c>
       <c r="J161" t="n">
-        <v>6.296961475677648</v>
+        <v>6.296961475677647</v>
       </c>
     </row>
     <row r="162">
@@ -10772,7 +10772,7 @@
         <v>3.97</v>
       </c>
       <c r="E162" t="n">
-        <v>9.241516996154306</v>
+        <v>9.241516996154305</v>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
@@ -10815,7 +10815,7 @@
         <v>-5.65</v>
       </c>
       <c r="J163" t="n">
-        <v>21.61387916741887</v>
+        <v>21.61387916741886</v>
       </c>
     </row>
     <row r="164">
@@ -10832,7 +10832,7 @@
         <v>-10.07</v>
       </c>
       <c r="E164" t="n">
-        <v>4.464720178884964</v>
+        <v>4.464720178884957</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
@@ -10875,7 +10875,7 @@
         <v>-78.84999999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>29.63241393674639</v>
+        <v>29.6324139367464</v>
       </c>
     </row>
     <row r="166">
@@ -10892,7 +10892,7 @@
         <v>-1.21</v>
       </c>
       <c r="E166" t="n">
-        <v>7.474255545068864</v>
+        <v>7.474255545068861</v>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
@@ -10922,7 +10922,7 @@
         <v>9.06</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1736843563232783</v>
+        <v>0.1736843563232801</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -10935,7 +10935,7 @@
         <v>-14.75</v>
       </c>
       <c r="J167" t="n">
-        <v>-3.644902125502874</v>
+        <v>-3.644902125502868</v>
       </c>
     </row>
     <row r="168">
@@ -10982,7 +10982,7 @@
         <v>-14.09</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3068146349650582</v>
+        <v>-0.3068146349650676</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -10995,7 +10995,7 @@
         <v>-9.18</v>
       </c>
       <c r="J169" t="n">
-        <v>-2.614848723902504</v>
+        <v>-2.614848723902505</v>
       </c>
     </row>
     <row r="170">
@@ -11012,7 +11012,7 @@
         <v>1.05</v>
       </c>
       <c r="E170" t="n">
-        <v>1.171042358548843</v>
+        <v>1.171042358548841</v>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
@@ -11025,7 +11025,7 @@
         <v>-117.21</v>
       </c>
       <c r="J170" t="n">
-        <v>-57.87989125696038</v>
+        <v>-57.87989125696037</v>
       </c>
     </row>
     <row r="171">
@@ -11042,7 +11042,7 @@
         <v>-28.13</v>
       </c>
       <c r="E171" t="n">
-        <v>-3.807677413014607</v>
+        <v>-3.807677413014614</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
@@ -11055,7 +11055,7 @@
         <v>-89.52</v>
       </c>
       <c r="J171" t="n">
-        <v>-13.96352043603956</v>
+        <v>-13.96352043603957</v>
       </c>
     </row>
     <row r="172">
@@ -11102,7 +11102,7 @@
         <v>-26.18</v>
       </c>
       <c r="E173" t="n">
-        <v>-8.437807555862177</v>
+        <v>-8.437807555862179</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
@@ -11115,7 +11115,7 @@
         <v>14.51</v>
       </c>
       <c r="J173" t="n">
-        <v>18.57442241831024</v>
+        <v>18.57442241831023</v>
       </c>
     </row>
     <row r="174">
@@ -11132,7 +11132,7 @@
         <v>20.45</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7806189442480741</v>
+        <v>-0.7806189442480707</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
@@ -11145,7 +11145,7 @@
         <v>-17.34</v>
       </c>
       <c r="J174" t="n">
-        <v>22.96018801674263</v>
+        <v>22.96018801674262</v>
       </c>
     </row>
     <row r="175">
@@ -11175,7 +11175,7 @@
         <v>-83.47</v>
       </c>
       <c r="J175" t="n">
-        <v>-11.61895444350846</v>
+        <v>-11.61895444350845</v>
       </c>
     </row>
     <row r="176">
@@ -11192,7 +11192,7 @@
         <v>-5.18</v>
       </c>
       <c r="E176" t="n">
-        <v>3.899196936846683</v>
+        <v>3.899196936846682</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
@@ -11205,7 +11205,7 @@
         <v>46.37</v>
       </c>
       <c r="J176" t="n">
-        <v>-2.41225170130587</v>
+        <v>-2.412251701305877</v>
       </c>
     </row>
     <row r="177">
@@ -11222,7 +11222,7 @@
         <v>-13.9</v>
       </c>
       <c r="E177" t="n">
-        <v>-2.004670639391515</v>
+        <v>-2.004670639391509</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
@@ -11265,7 +11265,7 @@
         <v>-111.95</v>
       </c>
       <c r="J178" t="n">
-        <v>-13.65575754910531</v>
+        <v>-13.65575754910532</v>
       </c>
     </row>
     <row r="179">
@@ -11282,7 +11282,7 @@
         <v>22.47</v>
       </c>
       <c r="E179" t="n">
-        <v>-2.421732253530492</v>
+        <v>-2.421732253530488</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
@@ -11312,7 +11312,7 @@
         <v>-1.14</v>
       </c>
       <c r="E180" t="n">
-        <v>6.804204611910435</v>
+        <v>6.804204611910432</v>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
@@ -11342,7 +11342,7 @@
         <v>17.08</v>
       </c>
       <c r="E181" t="n">
-        <v>5.349777558185759</v>
+        <v>5.34977755818576</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
@@ -11372,7 +11372,7 @@
         <v>15.13</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.903056664756608</v>
+        <v>-1.903056664756609</v>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
@@ -11385,7 +11385,7 @@
         <v>-7.37</v>
       </c>
       <c r="J182" t="n">
-        <v>6.144832908570053</v>
+        <v>6.144832908570046</v>
       </c>
     </row>
     <row r="183">
@@ -11402,7 +11402,7 @@
         <v>7.31</v>
       </c>
       <c r="E183" t="n">
-        <v>1.739601743018172</v>
+        <v>1.739601743018169</v>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
@@ -11415,7 +11415,7 @@
         <v>5.96</v>
       </c>
       <c r="J183" t="n">
-        <v>-0.8411729021068147</v>
+        <v>-0.8411729021068206</v>
       </c>
     </row>
     <row r="184">
@@ -11445,7 +11445,7 @@
         <v>-6.04</v>
       </c>
       <c r="J184" t="n">
-        <v>5.106046738030701</v>
+        <v>5.106046738030705</v>
       </c>
     </row>
     <row r="185">
@@ -11462,7 +11462,7 @@
         <v>3.86</v>
       </c>
       <c r="E185" t="n">
-        <v>-2.308780852129319</v>
+        <v>-2.308780852129318</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
@@ -11475,7 +11475,7 @@
         <v>-16.24</v>
       </c>
       <c r="J185" t="n">
-        <v>12.04567932759462</v>
+        <v>12.04567932759463</v>
       </c>
     </row>
     <row r="186">
@@ -11492,7 +11492,7 @@
         <v>4.99</v>
       </c>
       <c r="E186" t="n">
-        <v>-8.33125375409263</v>
+        <v>-8.331253754092632</v>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
@@ -11522,7 +11522,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>6.888694098663684</v>
+        <v>6.888694098663683</v>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
@@ -11535,7 +11535,7 @@
         <v>-9.18</v>
       </c>
       <c r="J187" t="n">
-        <v>-27.02357087751771</v>
+        <v>-27.02357087751769</v>
       </c>
     </row>
     <row r="188">
@@ -11552,7 +11552,7 @@
         <v>7.33</v>
       </c>
       <c r="E188" t="n">
-        <v>3.507687132423384</v>
+        <v>3.507687132423386</v>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
@@ -11582,7 +11582,7 @@
         <v>6.93</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7402371190493233</v>
+        <v>0.7402371190493251</v>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
@@ -11595,7 +11595,7 @@
         <v>-7.22</v>
       </c>
       <c r="J189" t="n">
-        <v>-19.11844176438485</v>
+        <v>-19.11844176438486</v>
       </c>
     </row>
     <row r="190">
@@ -11612,7 +11612,7 @@
         <v>6.79</v>
       </c>
       <c r="E190" t="n">
-        <v>-1.717600871651537</v>
+        <v>-1.717600871651534</v>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
@@ -11655,7 +11655,7 @@
         <v>-9.34</v>
       </c>
       <c r="J191" t="n">
-        <v>-3.819470150525915</v>
+        <v>-3.819470150525922</v>
       </c>
     </row>
     <row r="192">
@@ -11672,7 +11672,7 @@
         <v>6.76</v>
       </c>
       <c r="E192" t="n">
-        <v>8.123081899223408</v>
+        <v>8.123081899223406</v>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
@@ -11685,7 +11685,7 @@
         <v>-16.24</v>
       </c>
       <c r="J192" t="n">
-        <v>16.96621367434583</v>
+        <v>16.96621367434582</v>
       </c>
     </row>
     <row r="193">
@@ -11702,7 +11702,7 @@
         <v>11.05</v>
       </c>
       <c r="E193" t="n">
-        <v>-5.197321115994535</v>
+        <v>-5.197321115994534</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
@@ -11715,7 +11715,7 @@
         <v>-6.75</v>
       </c>
       <c r="J193" t="n">
-        <v>-2.931026060212968</v>
+        <v>-2.931026060212965</v>
       </c>
     </row>
     <row r="194">
@@ -11732,7 +11732,7 @@
         <v>10.11</v>
       </c>
       <c r="E194" t="n">
-        <v>-3.869389980688592</v>
+        <v>-3.869389980688594</v>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
@@ -11745,7 +11745,7 @@
         <v>-10.04</v>
       </c>
       <c r="J194" t="n">
-        <v>4.119222501879036</v>
+        <v>4.119222501879028</v>
       </c>
     </row>
     <row r="195">
@@ -11775,7 +11775,7 @@
         <v>-5.33</v>
       </c>
       <c r="J195" t="n">
-        <v>4.097830465588041</v>
+        <v>4.097830465588038</v>
       </c>
     </row>
   </sheetData>
@@ -11863,7 +11863,7 @@
         <v>10.6</v>
       </c>
       <c r="E2" t="n">
-        <v>3.51491548604586</v>
+        <v>3.514915486045862</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
@@ -11893,7 +11893,7 @@
         <v>9.31</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.833922658595838</v>
+        <v>-3.833922658595843</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -11906,7 +11906,7 @@
         <v>-8.710000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7772470242822925</v>
+        <v>0.7772470242822928</v>
       </c>
     </row>
     <row r="4">
@@ -11953,7 +11953,7 @@
         <v>8.51</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.230387148222407</v>
+        <v>-3.230387148222396</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
@@ -11983,7 +11983,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2.590284220780515</v>
+        <v>2.590284220780507</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -12013,7 +12013,7 @@
         <v>8.68</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2700173396636405</v>
+        <v>0.2700173396636436</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
@@ -12026,7 +12026,7 @@
         <v>-7.92</v>
       </c>
       <c r="J7" t="n">
-        <v>4.169095418021046</v>
+        <v>4.169095418021037</v>
       </c>
     </row>
     <row r="8">
@@ -12043,7 +12043,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>3.056959831387181</v>
+        <v>3.056959831387183</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -12086,7 +12086,7 @@
         <v>-6.12</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.09029652273261</v>
+        <v>-9.090296522732617</v>
       </c>
     </row>
     <row r="10">
@@ -12103,7 +12103,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.285800617189295</v>
+        <v>-4.285800617189296</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
@@ -12116,7 +12116,7 @@
         <v>-6.43</v>
       </c>
       <c r="J10" t="n">
-        <v>22.39097052640175</v>
+        <v>22.39097052640174</v>
       </c>
     </row>
     <row r="11">
@@ -12133,7 +12133,7 @@
         <v>8.94</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.407418191340746</v>
+        <v>-1.407418191340754</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
@@ -12146,7 +12146,7 @@
         <v>-7.53</v>
       </c>
       <c r="J11" t="n">
-        <v>-12.55857874891597</v>
+        <v>-12.55857874891598</v>
       </c>
     </row>
     <row r="12">
@@ -12163,7 +12163,7 @@
         <v>8.4</v>
       </c>
       <c r="E12" t="n">
-        <v>1.72989487158362</v>
+        <v>1.729894871583618</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
@@ -12176,7 +12176,7 @@
         <v>-6.98</v>
       </c>
       <c r="J12" t="n">
-        <v>3.190063262635932</v>
+        <v>3.190063262635943</v>
       </c>
     </row>
     <row r="13">
@@ -12193,7 +12193,7 @@
         <v>8.74</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.566070267625635</v>
+        <v>-3.566070267625638</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
@@ -12206,7 +12206,7 @@
         <v>-7.3</v>
       </c>
       <c r="J13" t="n">
-        <v>5.543204711685629</v>
+        <v>5.543204711685641</v>
       </c>
     </row>
     <row r="14">
@@ -12223,7 +12223,7 @@
         <v>9.07</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5674815379679827</v>
+        <v>0.5674815379679718</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
@@ -12236,7 +12236,7 @@
         <v>-6.9</v>
       </c>
       <c r="J14" t="n">
-        <v>11.83412257665439</v>
+        <v>11.83412257665437</v>
       </c>
     </row>
     <row r="15">
@@ -12253,7 +12253,7 @@
         <v>8.84</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0002331942091193443</v>
+        <v>-0.0002331942091195815</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
@@ -12266,7 +12266,7 @@
         <v>-6.59</v>
       </c>
       <c r="J15" t="n">
-        <v>5.236874257724952</v>
+        <v>5.23687425772495</v>
       </c>
     </row>
     <row r="16">
@@ -12283,7 +12283,7 @@
         <v>8.539999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6634545603572672</v>
+        <v>-0.6634545603572718</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
@@ -12313,7 +12313,7 @@
         <v>8.75</v>
       </c>
       <c r="E17" t="n">
-        <v>8.468062080219052</v>
+        <v>8.468062080219056</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
@@ -12343,7 +12343,7 @@
         <v>9.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.358361765511798</v>
+        <v>-4.358361765511797</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
@@ -12356,7 +12356,7 @@
         <v>-7.37</v>
       </c>
       <c r="J18" t="n">
-        <v>5.784169215070135</v>
+        <v>5.784169215070143</v>
       </c>
     </row>
     <row r="19">
@@ -12373,7 +12373,7 @@
         <v>8.83</v>
       </c>
       <c r="E19" t="n">
-        <v>7.648691328267285</v>
+        <v>7.648691328267287</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
@@ -12386,7 +12386,7 @@
         <v>-8.32</v>
       </c>
       <c r="J19" t="n">
-        <v>-11.06122123318794</v>
+        <v>-11.06122123318793</v>
       </c>
     </row>
     <row r="20">
@@ -12403,7 +12403,7 @@
         <v>8.25</v>
       </c>
       <c r="E20" t="n">
-        <v>1.300611387808178</v>
+        <v>1.300611387808177</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
@@ -12416,7 +12416,7 @@
         <v>-9.18</v>
       </c>
       <c r="J20" t="n">
-        <v>2.261310562126227</v>
+        <v>2.261310562126213</v>
       </c>
     </row>
     <row r="21">
@@ -12433,7 +12433,7 @@
         <v>8.09</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.03945369153745618</v>
+        <v>-0.03945369153745396</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
@@ -12463,7 +12463,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>10.16931856169679</v>
+        <v>10.16931856169678</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -12493,7 +12493,7 @@
         <v>8.66</v>
       </c>
       <c r="E23" t="n">
-        <v>2.00013455116178</v>
+        <v>2.000134551161776</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
@@ -12506,7 +12506,7 @@
         <v>-7.85</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.187860069767513</v>
+        <v>-1.187860069767508</v>
       </c>
     </row>
     <row r="24">
@@ -12523,7 +12523,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>7.581902754560743</v>
+        <v>7.58190275456075</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
@@ -12536,7 +12536,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.6827451639386996</v>
+        <v>-0.6827451639386959</v>
       </c>
     </row>
     <row r="25">
@@ -12553,7 +12553,7 @@
         <v>8.4</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.504905032938237</v>
+        <v>-2.504905032938253</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -12566,7 +12566,7 @@
         <v>-8.16</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.285699828889538</v>
+        <v>-7.285699828889541</v>
       </c>
     </row>
     <row r="26">
@@ -12583,7 +12583,7 @@
         <v>8.56</v>
       </c>
       <c r="E26" t="n">
-        <v>2.823936329848364</v>
+        <v>2.823936329848375</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -12596,7 +12596,7 @@
         <v>-6.83</v>
       </c>
       <c r="J26" t="n">
-        <v>-10.9648962958051</v>
+        <v>-10.96489629580508</v>
       </c>
     </row>
     <row r="27">
@@ -12613,7 +12613,7 @@
         <v>8.619999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>3.682237683792116</v>
+        <v>3.682237683792126</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
@@ -12626,7 +12626,7 @@
         <v>-7.45</v>
       </c>
       <c r="J27" t="n">
-        <v>-11.58782611699894</v>
+        <v>-11.58782611699893</v>
       </c>
     </row>
     <row r="28">
@@ -12656,7 +12656,7 @@
         <v>-8.08</v>
       </c>
       <c r="J28" t="n">
-        <v>-5.106993337396132</v>
+        <v>-5.106993337396126</v>
       </c>
     </row>
     <row r="29">
@@ -12673,7 +12673,7 @@
         <v>8.23</v>
       </c>
       <c r="E29" t="n">
-        <v>7.987888725795963</v>
+        <v>7.98788872579597</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
@@ -12686,7 +12686,7 @@
         <v>-9.49</v>
       </c>
       <c r="J29" t="n">
-        <v>7.956334171986673</v>
+        <v>7.956334171986683</v>
       </c>
     </row>
     <row r="30">
@@ -12703,7 +12703,7 @@
         <v>8.26</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.9143878091267142</v>
+        <v>-0.914387809126704</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
@@ -12716,7 +12716,7 @@
         <v>-8</v>
       </c>
       <c r="J30" t="n">
-        <v>-11.92647752730393</v>
+        <v>-11.92647752730394</v>
       </c>
     </row>
     <row r="31">
@@ -12733,7 +12733,7 @@
         <v>8.76</v>
       </c>
       <c r="E31" t="n">
-        <v>7.073601612864528</v>
+        <v>7.073601612864529</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
@@ -12746,7 +12746,7 @@
         <v>-7.53</v>
       </c>
       <c r="J31" t="n">
-        <v>4.389096785031968</v>
+        <v>4.38909678503197</v>
       </c>
     </row>
     <row r="32">
@@ -12763,7 +12763,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>2.153466372442284</v>
+        <v>2.153466372442281</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
@@ -12806,7 +12806,7 @@
         <v>-8.08</v>
       </c>
       <c r="J33" t="n">
-        <v>-11.82828117932679</v>
+        <v>-11.82828117932678</v>
       </c>
     </row>
     <row r="34">
@@ -12823,7 +12823,7 @@
         <v>8.6</v>
       </c>
       <c r="E34" t="n">
-        <v>7.102818412989929</v>
+        <v>7.102818412989928</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -12836,7 +12836,7 @@
         <v>-8.16</v>
       </c>
       <c r="J34" t="n">
-        <v>10.88734545665919</v>
+        <v>10.88734545665918</v>
       </c>
     </row>
     <row r="35">
@@ -12853,7 +12853,7 @@
         <v>8.94</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.426058861844897</v>
+        <v>-3.426058861844899</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
@@ -12866,7 +12866,7 @@
         <v>-7.45</v>
       </c>
       <c r="J35" t="n">
-        <v>-5.372799035374451</v>
+        <v>-5.372799035374446</v>
       </c>
     </row>
     <row r="36">
@@ -12883,7 +12883,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>3.787740580132374</v>
+        <v>3.787740580132378</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
@@ -12896,7 +12896,7 @@
         <v>-7.53</v>
       </c>
       <c r="J36" t="n">
-        <v>1.623016407014688</v>
+        <v>1.623016407014698</v>
       </c>
     </row>
     <row r="37">
@@ -12913,7 +12913,7 @@
         <v>8.75</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.546799177729252</v>
+        <v>-2.546799177729251</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
@@ -12943,7 +12943,7 @@
         <v>7.86</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.55638753345993</v>
+        <v>-3.556387533459932</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
@@ -12973,7 +12973,7 @@
         <v>7.68</v>
       </c>
       <c r="E39" t="n">
-        <v>6.594793470248502</v>
+        <v>6.594793470248512</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
@@ -12986,7 +12986,7 @@
         <v>-8.710000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>2.669010552407173</v>
+        <v>2.669010552407172</v>
       </c>
     </row>
     <row r="40">
@@ -13003,7 +13003,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>2.583796752510762</v>
+        <v>2.583796752510758</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
@@ -13033,7 +13033,7 @@
         <v>8.19</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.100929099648522</v>
+        <v>-1.100929099648526</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
@@ -13063,7 +13063,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.403574794807405</v>
+        <v>-1.403574794807404</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
@@ -13093,7 +13093,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.8641067181613292</v>
+        <v>-0.8641067181613279</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
@@ -13123,7 +13123,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>4.018500203136954</v>
+        <v>4.018500203136964</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
@@ -13136,7 +13136,7 @@
         <v>-7.37</v>
       </c>
       <c r="J44" t="n">
-        <v>8.141984571879799</v>
+        <v>8.141984571879808</v>
       </c>
     </row>
     <row r="45">
@@ -13153,7 +13153,7 @@
         <v>9.01</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.151213909895586</v>
+        <v>-4.151213909895593</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
@@ -13166,7 +13166,7 @@
         <v>-7.61</v>
       </c>
       <c r="J45" t="n">
-        <v>0.6139913546996091</v>
+        <v>0.6139913546996018</v>
       </c>
     </row>
     <row r="46">
@@ -13183,7 +13183,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.057739987290619</v>
+        <v>-2.057739987290622</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
@@ -13196,7 +13196,7 @@
         <v>-7.14</v>
       </c>
       <c r="J46" t="n">
-        <v>-2.04161171059986</v>
+        <v>-2.041611710599884</v>
       </c>
     </row>
     <row r="47">
@@ -13213,7 +13213,7 @@
         <v>8.75</v>
       </c>
       <c r="E47" t="n">
-        <v>4.045608944086651</v>
+        <v>4.045608944086649</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
@@ -13226,7 +13226,7 @@
         <v>-20.87</v>
       </c>
       <c r="J47" t="n">
-        <v>-27.27020023956415</v>
+        <v>-27.27020023956414</v>
       </c>
     </row>
     <row r="48">
@@ -13243,7 +13243,7 @@
         <v>-14.54</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.75909445405334</v>
+        <v>-18.75909445405333</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
@@ -13273,7 +13273,7 @@
         <v>15.55</v>
       </c>
       <c r="E49" t="n">
-        <v>8.275534659635239</v>
+        <v>8.275534659635246</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
@@ -13286,7 +13286,7 @@
         <v>-17.97</v>
       </c>
       <c r="J49" t="n">
-        <v>-49.5313065473185</v>
+        <v>-49.53130654731851</v>
       </c>
     </row>
     <row r="50">
@@ -13303,7 +13303,7 @@
         <v>5.96</v>
       </c>
       <c r="E50" t="n">
-        <v>-9.948492586542201</v>
+        <v>-9.948492586542207</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
@@ -13333,7 +13333,7 @@
         <v>10.09</v>
       </c>
       <c r="E51" t="n">
-        <v>20.14488930641381</v>
+        <v>20.1448893064138</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
@@ -13363,7 +13363,7 @@
         <v>5.35</v>
       </c>
       <c r="E52" t="n">
-        <v>6.204783346930197</v>
+        <v>6.204783346930201</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
@@ -13393,7 +13393,7 @@
         <v>9.01</v>
       </c>
       <c r="E53" t="n">
-        <v>4.035837662273514</v>
+        <v>4.035837662273508</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
@@ -13406,7 +13406,7 @@
         <v>-1.49</v>
       </c>
       <c r="J53" t="n">
-        <v>5.711645280896761</v>
+        <v>5.711645280896755</v>
       </c>
     </row>
     <row r="54">
@@ -13423,7 +13423,7 @@
         <v>10.39</v>
       </c>
       <c r="E54" t="n">
-        <v>12.05404465094043</v>
+        <v>12.05404465094044</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
@@ -13453,7 +13453,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>4.703676443826249</v>
+        <v>4.703676443826257</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
@@ -13466,7 +13466,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>-6.09668752867233</v>
+        <v>-6.096687528672319</v>
       </c>
     </row>
     <row r="56">
@@ -13496,7 +13496,7 @@
         <v>6.12</v>
       </c>
       <c r="J56" t="n">
-        <v>24.77423620623477</v>
+        <v>24.77423620623478</v>
       </c>
     </row>
     <row r="57">
@@ -13513,7 +13513,7 @@
         <v>-6.21</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.635305288168752</v>
+        <v>-9.635305288168748</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
@@ -13526,7 +13526,7 @@
         <v>60.49</v>
       </c>
       <c r="J57" t="n">
-        <v>49.49454348163235</v>
+        <v>49.49454348163232</v>
       </c>
     </row>
     <row r="58">
@@ -13543,7 +13543,7 @@
         <v>-8.84</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.462167666429888</v>
+        <v>-9.462167666429885</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
@@ -13556,7 +13556,7 @@
         <v>0.55</v>
       </c>
       <c r="J58" t="n">
-        <v>-2.523709575920715</v>
+        <v>-2.523709575920718</v>
       </c>
     </row>
     <row r="59">
@@ -13573,7 +13573,7 @@
         <v>16.04</v>
       </c>
       <c r="E59" t="n">
-        <v>18.14300533932296</v>
+        <v>18.14300533932298</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
@@ -13586,7 +13586,7 @@
         <v>-6.43</v>
       </c>
       <c r="J59" t="n">
-        <v>33.9123939062784</v>
+        <v>33.91239390627842</v>
       </c>
     </row>
     <row r="60">
@@ -13616,7 +13616,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>-10.89723789635339</v>
+        <v>-10.89723789635337</v>
       </c>
     </row>
     <row r="61">
@@ -13633,7 +13633,7 @@
         <v>5.66</v>
       </c>
       <c r="E61" t="n">
-        <v>6.87633823038922</v>
+        <v>6.876338230389223</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
@@ -13663,7 +13663,7 @@
         <v>-2.28</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.921873817601875</v>
+        <v>-0.9218738176018796</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
@@ -13676,7 +13676,7 @@
         <v>43.31</v>
       </c>
       <c r="J62" t="n">
-        <v>48.49947702019996</v>
+        <v>48.49947702019998</v>
       </c>
     </row>
     <row r="63">
@@ -13693,7 +13693,7 @@
         <v>-9.140000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.78093491577119</v>
+        <v>-10.7809349157712</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
@@ -13706,7 +13706,7 @@
         <v>10.12</v>
       </c>
       <c r="J63" t="n">
-        <v>-1.117673437378331</v>
+        <v>-1.117673437378336</v>
       </c>
     </row>
     <row r="64">
@@ -13736,7 +13736,7 @@
         <v>13.96</v>
       </c>
       <c r="J64" t="n">
-        <v>30.94343473271334</v>
+        <v>30.94343473271333</v>
       </c>
     </row>
     <row r="65">
@@ -13753,7 +13753,7 @@
         <v>-2.9</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.284861439324279</v>
+        <v>-8.284861439324281</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
@@ -13766,7 +13766,7 @@
         <v>-14.67</v>
       </c>
       <c r="J65" t="n">
-        <v>-13.01334838737031</v>
+        <v>-13.01334838737033</v>
       </c>
     </row>
     <row r="66">
@@ -13796,7 +13796,7 @@
         <v>-15.06</v>
       </c>
       <c r="J66" t="n">
-        <v>-7.990090522172403</v>
+        <v>-7.990090522172398</v>
       </c>
     </row>
     <row r="67">
@@ -13813,7 +13813,7 @@
         <v>7.6</v>
       </c>
       <c r="E67" t="n">
-        <v>3.718063568793873</v>
+        <v>3.718063568793884</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
@@ -13826,7 +13826,7 @@
         <v>-56.96</v>
       </c>
       <c r="J67" t="n">
-        <v>-33.30948452086857</v>
+        <v>-33.30948452086858</v>
       </c>
     </row>
     <row r="68">
@@ -13843,7 +13843,7 @@
         <v>11.41</v>
       </c>
       <c r="E68" t="n">
-        <v>7.883407196920114</v>
+        <v>7.883407196920104</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
@@ -13856,7 +13856,7 @@
         <v>-15.93</v>
       </c>
       <c r="J68" t="n">
-        <v>13.47977735453947</v>
+        <v>13.47977735453948</v>
       </c>
     </row>
     <row r="69">
@@ -13873,7 +13873,7 @@
         <v>6.17</v>
       </c>
       <c r="E69" t="n">
-        <v>7.234995150900748</v>
+        <v>7.234995150900751</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
@@ -13886,7 +13886,7 @@
         <v>-5.02</v>
       </c>
       <c r="J69" t="n">
-        <v>-4.123492638930371</v>
+        <v>-4.123492638930358</v>
       </c>
     </row>
     <row r="70">
@@ -13916,7 +13916,7 @@
         <v>-20.87</v>
       </c>
       <c r="J70" t="n">
-        <v>-7.082969726675209</v>
+        <v>-7.082969726675181</v>
       </c>
     </row>
     <row r="71">
@@ -13946,7 +13946,7 @@
         <v>-3.06</v>
       </c>
       <c r="J71" t="n">
-        <v>-8.352315713112556</v>
+        <v>-8.352315713112555</v>
       </c>
     </row>
     <row r="72">
@@ -13963,7 +13963,7 @@
         <v>6.7</v>
       </c>
       <c r="E72" t="n">
-        <v>10.34034442952268</v>
+        <v>10.34034442952269</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
@@ -13976,7 +13976,7 @@
         <v>-1.41</v>
       </c>
       <c r="J72" t="n">
-        <v>-6.399402282659286</v>
+        <v>-6.399402282659303</v>
       </c>
     </row>
     <row r="73">
@@ -14006,7 +14006,7 @@
         <v>-14.2</v>
       </c>
       <c r="J73" t="n">
-        <v>13.98816844715368</v>
+        <v>13.98816844715369</v>
       </c>
     </row>
     <row r="74">
@@ -14023,7 +14023,7 @@
         <v>8.18</v>
       </c>
       <c r="E74" t="n">
-        <v>13.72249465551438</v>
+        <v>13.72249465551439</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
@@ -14036,7 +14036,7 @@
         <v>2.51</v>
       </c>
       <c r="J74" t="n">
-        <v>-4.979104073993816</v>
+        <v>-4.979104073993841</v>
       </c>
     </row>
     <row r="75">
@@ -14066,7 +14066,7 @@
         <v>-2.75</v>
       </c>
       <c r="J75" t="n">
-        <v>26.73992278784377</v>
+        <v>26.73992278784374</v>
       </c>
     </row>
     <row r="76">
@@ -14113,7 +14113,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>5.756410368955132</v>
+        <v>5.756410368955127</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
@@ -14126,7 +14126,7 @@
         <v>-4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.95200187657947</v>
+        <v>1.952001876579477</v>
       </c>
     </row>
     <row r="78">
@@ -14156,7 +14156,7 @@
         <v>4.94</v>
       </c>
       <c r="J78" t="n">
-        <v>19.80330999958329</v>
+        <v>19.8033099995833</v>
       </c>
     </row>
     <row r="79">
@@ -14173,7 +14173,7 @@
         <v>2.5</v>
       </c>
       <c r="E79" t="n">
-        <v>9.292722312439611</v>
+        <v>9.292722312439615</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
@@ -14186,7 +14186,7 @@
         <v>-26.28</v>
       </c>
       <c r="J79" t="n">
-        <v>2.430230532441388</v>
+        <v>2.430230532441391</v>
       </c>
     </row>
     <row r="80">
@@ -14203,7 +14203,7 @@
         <v>3.46</v>
       </c>
       <c r="E80" t="n">
-        <v>9.517025417121502</v>
+        <v>9.5170254171215</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
@@ -14233,7 +14233,7 @@
         <v>6.18</v>
       </c>
       <c r="E81" t="n">
-        <v>6.95915360475717</v>
+        <v>6.959153604757166</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
@@ -14246,7 +14246,7 @@
         <v>15.3</v>
       </c>
       <c r="J81" t="n">
-        <v>32.68939784221204</v>
+        <v>32.68939784221205</v>
       </c>
     </row>
     <row r="82">
@@ -14263,7 +14263,7 @@
         <v>-0.62</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001938614369858131</v>
+        <v>0.001938614369855552</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
@@ -14276,7 +14276,7 @@
         <v>-82.84999999999999</v>
       </c>
       <c r="J82" t="n">
-        <v>-84.85232813676535</v>
+        <v>-84.85232813676538</v>
       </c>
     </row>
     <row r="83">
@@ -14306,7 +14306,7 @@
         <v>32.71</v>
       </c>
       <c r="J83" t="n">
-        <v>31.52440358000756</v>
+        <v>31.52440358000757</v>
       </c>
     </row>
     <row r="84">
@@ -14336,7 +14336,7 @@
         <v>7.69</v>
       </c>
       <c r="J84" t="n">
-        <v>19.47974169444349</v>
+        <v>19.47974169444347</v>
       </c>
     </row>
     <row r="85">
@@ -14366,7 +14366,7 @@
         <v>-46.68</v>
       </c>
       <c r="J85" t="n">
-        <v>-52.82110676238167</v>
+        <v>-52.82110676238169</v>
       </c>
     </row>
     <row r="86">
@@ -14383,7 +14383,7 @@
         <v>10.66</v>
       </c>
       <c r="E86" t="n">
-        <v>9.241635937377847</v>
+        <v>9.241635937377845</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
@@ -14413,7 +14413,7 @@
         <v>19.51</v>
       </c>
       <c r="E87" t="n">
-        <v>13.50544495693357</v>
+        <v>13.50544495693356</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
@@ -14443,7 +14443,7 @@
         <v>18.57</v>
       </c>
       <c r="E88" t="n">
-        <v>28.06005896861799</v>
+        <v>28.06005896861797</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
@@ -14456,7 +14456,7 @@
         <v>-90.53</v>
       </c>
       <c r="J88" t="n">
-        <v>-47.80031466573446</v>
+        <v>-47.80031466573445</v>
       </c>
     </row>
     <row r="89">
@@ -14473,7 +14473,7 @@
         <v>-2.15</v>
       </c>
       <c r="E89" t="n">
-        <v>15.10459463327251</v>
+        <v>15.1045946332725</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
@@ -14486,7 +14486,7 @@
         <v>-20.24</v>
       </c>
       <c r="J89" t="n">
-        <v>100.2993664351739</v>
+        <v>100.2993664351738</v>
       </c>
     </row>
     <row r="90">
@@ -14516,7 +14516,7 @@
         <v>-56.33</v>
       </c>
       <c r="J90" t="n">
-        <v>14.32535266187787</v>
+        <v>14.32535266187786</v>
       </c>
     </row>
     <row r="91">
@@ -14546,7 +14546,7 @@
         <v>27.62</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.5396234689074343</v>
+        <v>-0.5396234689074203</v>
       </c>
     </row>
     <row r="92">
@@ -14576,7 +14576,7 @@
         <v>-21.5</v>
       </c>
       <c r="J92" t="n">
-        <v>6.672310609128821</v>
+        <v>6.672310609128823</v>
       </c>
     </row>
     <row r="93">
@@ -14606,7 +14606,7 @@
         <v>-7.3</v>
       </c>
       <c r="J93" t="n">
-        <v>42.33099874936048</v>
+        <v>42.33099874936049</v>
       </c>
     </row>
     <row r="94">
@@ -14636,7 +14636,7 @@
         <v>47.46</v>
       </c>
       <c r="J94" t="n">
-        <v>61.62035359932427</v>
+        <v>61.62035359932425</v>
       </c>
     </row>
     <row r="95">
@@ -14696,7 +14696,7 @@
         <v>-43.23</v>
       </c>
       <c r="J96" t="n">
-        <v>-20.78512918543098</v>
+        <v>-20.78512918543097</v>
       </c>
     </row>
     <row r="97">
@@ -14713,7 +14713,7 @@
         <v>13.17</v>
       </c>
       <c r="E97" t="n">
-        <v>3.401059441574092</v>
+        <v>3.40105944157409</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
@@ -14743,7 +14743,7 @@
         <v>34.02</v>
       </c>
       <c r="E98" t="n">
-        <v>16.82378143901324</v>
+        <v>16.82378143901323</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
@@ -14773,7 +14773,7 @@
         <v>-4.74</v>
       </c>
       <c r="E99" t="n">
-        <v>-2.381389205994763</v>
+        <v>-2.381389205994749</v>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
@@ -14816,7 +14816,7 @@
         <v>-60.49</v>
       </c>
       <c r="J100" t="n">
-        <v>1.339035699448368</v>
+        <v>1.339035699448379</v>
       </c>
     </row>
     <row r="101">
@@ -14846,7 +14846,7 @@
         <v>44.56</v>
       </c>
       <c r="J101" t="n">
-        <v>-13.87725720616427</v>
+        <v>-13.87725720616426</v>
       </c>
     </row>
     <row r="102">
@@ -14906,7 +14906,7 @@
         <v>-58.53</v>
       </c>
       <c r="J103" t="n">
-        <v>-64.17337787680333</v>
+        <v>-64.17337787680334</v>
       </c>
     </row>
     <row r="104">
@@ -14923,7 +14923,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>-11.0616319077553</v>
+        <v>-11.06163190775529</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
@@ -14953,7 +14953,7 @@
         <v>6.85</v>
       </c>
       <c r="E105" t="n">
-        <v>62.71056775002037</v>
+        <v>62.71056775002036</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
@@ -14966,7 +14966,7 @@
         <v>54.13</v>
       </c>
       <c r="J105" t="n">
-        <v>54.80249948776965</v>
+        <v>54.80249948776966</v>
       </c>
     </row>
     <row r="106">
@@ -15013,7 +15013,7 @@
         <v>15.95</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.773532740329687</v>
+        <v>-4.773532740329684</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
@@ -15026,7 +15026,7 @@
         <v>-55.15</v>
       </c>
       <c r="J107" t="n">
-        <v>-68.13898689539037</v>
+        <v>-68.13898689539036</v>
       </c>
     </row>
     <row r="108">
@@ -15043,7 +15043,7 @@
         <v>44.03</v>
       </c>
       <c r="E108" t="n">
-        <v>60.4137919540107</v>
+        <v>60.41379195401071</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
@@ -15073,7 +15073,7 @@
         <v>51.24</v>
       </c>
       <c r="E109" t="n">
-        <v>86.95091460677176</v>
+        <v>86.95091460677178</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
@@ -15103,7 +15103,7 @@
         <v>-3.06</v>
       </c>
       <c r="E110" t="n">
-        <v>16.81235535790278</v>
+        <v>16.81235535790277</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
@@ -15133,7 +15133,7 @@
         <v>39.8</v>
       </c>
       <c r="E111" t="n">
-        <v>47.25626546995777</v>
+        <v>47.25626546995778</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
@@ -15146,7 +15146,7 @@
         <v>71.47</v>
       </c>
       <c r="J111" t="n">
-        <v>55.67428518301617</v>
+        <v>55.67428518301618</v>
       </c>
     </row>
     <row r="112">
@@ -15163,7 +15163,7 @@
         <v>28.75</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.76544785017256</v>
+        <v>-1.765447850172564</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
@@ -15176,7 +15176,7 @@
         <v>-2.9</v>
       </c>
       <c r="J112" t="n">
-        <v>-42.10543556554123</v>
+        <v>-42.10543556554126</v>
       </c>
     </row>
     <row r="113">
@@ -15193,7 +15193,7 @@
         <v>-29.02</v>
       </c>
       <c r="E113" t="n">
-        <v>-42.73968079771664</v>
+        <v>-42.73968079771662</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
@@ -15223,7 +15223,7 @@
         <v>15.53</v>
       </c>
       <c r="E114" t="n">
-        <v>7.280233732346725</v>
+        <v>7.28023373234673</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
@@ -15253,7 +15253,7 @@
         <v>22.6</v>
       </c>
       <c r="E115" t="n">
-        <v>76.03888125827775</v>
+        <v>76.03888125827777</v>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
@@ -15266,7 +15266,7 @@
         <v>4</v>
       </c>
       <c r="J115" t="n">
-        <v>-9.646185884821687</v>
+        <v>-9.646185884821682</v>
       </c>
     </row>
     <row r="116">
@@ -15283,7 +15283,7 @@
         <v>12.71</v>
       </c>
       <c r="E116" t="n">
-        <v>25.52436504051476</v>
+        <v>25.52436504051475</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
@@ -15313,7 +15313,7 @@
         <v>-21.93</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.0745576426354</v>
+        <v>-7.074557642635397</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
@@ -15356,7 +15356,7 @@
         <v>2.59</v>
       </c>
       <c r="J118" t="n">
-        <v>-23.03297846823099</v>
+        <v>-23.03297846823101</v>
       </c>
     </row>
     <row r="119">
@@ -15403,7 +15403,7 @@
         <v>20.08</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.956896244034596</v>
+        <v>-3.956896244034593</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
@@ -15416,7 +15416,7 @@
         <v>47.7</v>
       </c>
       <c r="J120" t="n">
-        <v>43.81446997130667</v>
+        <v>43.81446997130668</v>
       </c>
     </row>
     <row r="121">
@@ -15433,7 +15433,7 @@
         <v>-12.27</v>
       </c>
       <c r="E121" t="n">
-        <v>-18.35353809069739</v>
+        <v>-18.35353809069738</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
@@ -15476,7 +15476,7 @@
         <v>-12.63</v>
       </c>
       <c r="J122" t="n">
-        <v>8.58588595375987</v>
+        <v>8.585885953759867</v>
       </c>
     </row>
     <row r="123">
@@ -15493,7 +15493,7 @@
         <v>4.48</v>
       </c>
       <c r="E123" t="n">
-        <v>-1.40408412498883</v>
+        <v>-1.404084124988823</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
@@ -15506,7 +15506,7 @@
         <v>65.19</v>
       </c>
       <c r="J123" t="n">
-        <v>28.07360933993491</v>
+        <v>28.0736093399349</v>
       </c>
     </row>
     <row r="124">
@@ -15523,7 +15523,7 @@
         <v>30.31</v>
       </c>
       <c r="E124" t="n">
-        <v>32.69513661633091</v>
+        <v>32.69513661633092</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
@@ -15553,7 +15553,7 @@
         <v>0.58</v>
       </c>
       <c r="E125" t="n">
-        <v>7.178967205280816</v>
+        <v>7.178967205280815</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
@@ -15566,7 +15566,7 @@
         <v>53.74</v>
       </c>
       <c r="J125" t="n">
-        <v>6.787902277323519</v>
+        <v>6.78790227732352</v>
       </c>
     </row>
     <row r="126">
@@ -15626,7 +15626,7 @@
         <v>-92.5</v>
       </c>
       <c r="J127" t="n">
-        <v>-23.36034513550422</v>
+        <v>-23.36034513550419</v>
       </c>
     </row>
     <row r="128">
@@ -15643,7 +15643,7 @@
         <v>31.48</v>
       </c>
       <c r="E128" t="n">
-        <v>-27.9135142687023</v>
+        <v>-27.91351426870228</v>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
@@ -15656,7 +15656,7 @@
         <v>-18.51</v>
       </c>
       <c r="J128" t="n">
-        <v>-9.4320962963774</v>
+        <v>-9.432096296377399</v>
       </c>
     </row>
     <row r="129">
@@ -15673,7 +15673,7 @@
         <v>30.98</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.439721314909744</v>
+        <v>-1.439721314909745</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
@@ -15686,7 +15686,7 @@
         <v>84.73</v>
       </c>
       <c r="J129" t="n">
-        <v>47.58342171009068</v>
+        <v>47.58342171009067</v>
       </c>
     </row>
     <row r="130">
@@ -15703,7 +15703,7 @@
         <v>12.2</v>
       </c>
       <c r="E130" t="n">
-        <v>7.070041147435258</v>
+        <v>7.070041147435252</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
@@ -15716,7 +15716,7 @@
         <v>-32.64</v>
       </c>
       <c r="J130" t="n">
-        <v>1.23372548488049</v>
+        <v>1.233725484880505</v>
       </c>
     </row>
     <row r="131">
@@ -15733,7 +15733,7 @@
         <v>39.71</v>
       </c>
       <c r="E131" t="n">
-        <v>13.12898814792911</v>
+        <v>13.1289881479291</v>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
@@ -15746,7 +15746,7 @@
         <v>-6.43</v>
       </c>
       <c r="J131" t="n">
-        <v>31.70336905512877</v>
+        <v>31.70336905512876</v>
       </c>
     </row>
     <row r="132">
@@ -15763,7 +15763,7 @@
         <v>-5.84</v>
       </c>
       <c r="E132" t="n">
-        <v>-3.335514974131831</v>
+        <v>-3.335514974131841</v>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
@@ -15806,7 +15806,7 @@
         <v>-83.23999999999999</v>
       </c>
       <c r="J133" t="n">
-        <v>43.51196046414526</v>
+        <v>43.51196046414528</v>
       </c>
     </row>
     <row r="134">
@@ -15823,7 +15823,7 @@
         <v>69.15000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>57.3373785357297</v>
+        <v>57.33737853572968</v>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
@@ -15853,7 +15853,7 @@
         <v>-46.46</v>
       </c>
       <c r="E135" t="n">
-        <v>-21.9019247994832</v>
+        <v>-21.90192479948319</v>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
@@ -15866,7 +15866,7 @@
         <v>10.75</v>
       </c>
       <c r="J135" t="n">
-        <v>113.5148893135732</v>
+        <v>113.5148893135731</v>
       </c>
     </row>
     <row r="136">
@@ -15896,7 +15896,7 @@
         <v>-1.8</v>
       </c>
       <c r="J136" t="n">
-        <v>11.91960865857032</v>
+        <v>11.91960865857031</v>
       </c>
     </row>
     <row r="137">
@@ -15943,7 +15943,7 @@
         <v>5.89</v>
       </c>
       <c r="E138" t="n">
-        <v>-9.664899058860691</v>
+        <v>-9.664899058860692</v>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
@@ -15956,7 +15956,7 @@
         <v>57.11</v>
       </c>
       <c r="J138" t="n">
-        <v>38.33551861928682</v>
+        <v>38.33551861928681</v>
       </c>
     </row>
     <row r="139">
@@ -15986,7 +15986,7 @@
         <v>45.97</v>
       </c>
       <c r="J139" t="n">
-        <v>-7.762513578507136</v>
+        <v>-7.762513578507134</v>
       </c>
     </row>
     <row r="140">
@@ -16016,7 +16016,7 @@
         <v>-4.94</v>
       </c>
       <c r="J140" t="n">
-        <v>-50.31110194964963</v>
+        <v>-50.31110194964961</v>
       </c>
     </row>
     <row r="141">
@@ -16033,7 +16033,7 @@
         <v>-24.69</v>
       </c>
       <c r="E141" t="n">
-        <v>-16.09674142498076</v>
+        <v>-16.09674142498074</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
@@ -16046,7 +16046,7 @@
         <v>7.22</v>
       </c>
       <c r="J141" t="n">
-        <v>46.25823773710692</v>
+        <v>46.25823773710691</v>
       </c>
     </row>
     <row r="142">
@@ -16063,7 +16063,7 @@
         <v>-39.09</v>
       </c>
       <c r="E142" t="n">
-        <v>-4.076872504203999</v>
+        <v>-4.076872504203995</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
@@ -16076,7 +16076,7 @@
         <v>-67.16</v>
       </c>
       <c r="J142" t="n">
-        <v>-2.368237617364124</v>
+        <v>-2.368237617364127</v>
       </c>
     </row>
     <row r="143">
@@ -16093,7 +16093,7 @@
         <v>-7.32</v>
       </c>
       <c r="E143" t="n">
-        <v>-21.38405125071138</v>
+        <v>-21.38405125071139</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
@@ -16106,7 +16106,7 @@
         <v>26.83</v>
       </c>
       <c r="J143" t="n">
-        <v>-1.540537370454226</v>
+        <v>-1.540537370454237</v>
       </c>
     </row>
     <row r="144">
@@ -16123,7 +16123,7 @@
         <v>17.43</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.5827247730209929</v>
+        <v>-0.5827247730209969</v>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
@@ -16136,7 +16136,7 @@
         <v>-103.87</v>
       </c>
       <c r="J144" t="n">
-        <v>58.72101255063886</v>
+        <v>58.72101255063885</v>
       </c>
     </row>
     <row r="145">
@@ -16166,7 +16166,7 @@
         <v>-22.44</v>
       </c>
       <c r="J145" t="n">
-        <v>71.68597946833955</v>
+        <v>71.68597946833958</v>
       </c>
     </row>
     <row r="146">
@@ -16183,7 +16183,7 @@
         <v>-27.64</v>
       </c>
       <c r="E146" t="n">
-        <v>-31.39191369082086</v>
+        <v>-31.39191369082084</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
@@ -16213,7 +16213,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>28.96377152666751</v>
+        <v>28.96377152666752</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
@@ -16256,7 +16256,7 @@
         <v>-33.58</v>
       </c>
       <c r="J148" t="n">
-        <v>22.84797998535797</v>
+        <v>22.84797998535796</v>
       </c>
     </row>
     <row r="149">
@@ -16273,7 +16273,7 @@
         <v>-21.13</v>
       </c>
       <c r="E149" t="n">
-        <v>-9.890410339672465</v>
+        <v>-9.890410339672467</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
@@ -16286,7 +16286,7 @@
         <v>8.94</v>
       </c>
       <c r="J149" t="n">
-        <v>46.53864931435449</v>
+        <v>46.53864931435448</v>
       </c>
     </row>
     <row r="150">
@@ -16316,7 +16316,7 @@
         <v>15.22</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.1774437023072917</v>
+        <v>-0.1774437023072847</v>
       </c>
     </row>
     <row r="151">
@@ -16333,7 +16333,7 @@
         <v>-0.32</v>
       </c>
       <c r="E151" t="n">
-        <v>3.143842579518058</v>
+        <v>3.143842579518061</v>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
@@ -16346,7 +16346,7 @@
         <v>10.98</v>
       </c>
       <c r="J151" t="n">
-        <v>-10.14989549765801</v>
+        <v>-10.149895497658</v>
       </c>
     </row>
     <row r="152">
@@ -16363,7 +16363,7 @@
         <v>-12.48</v>
       </c>
       <c r="E152" t="n">
-        <v>-22.26029572641364</v>
+        <v>-22.26029572641365</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
@@ -16376,7 +16376,7 @@
         <v>25.89</v>
       </c>
       <c r="J152" t="n">
-        <v>65.82796648929633</v>
+        <v>65.82796648929634</v>
       </c>
     </row>
     <row r="153">
@@ -16406,7 +16406,7 @@
         <v>22.67</v>
       </c>
       <c r="J153" t="n">
-        <v>45.87129231545407</v>
+        <v>45.87129231545405</v>
       </c>
     </row>
     <row r="154">
@@ -16436,7 +16436,7 @@
         <v>46.37</v>
       </c>
       <c r="J154" t="n">
-        <v>36.7552509288268</v>
+        <v>36.75525092882681</v>
       </c>
     </row>
     <row r="155">
@@ -16466,7 +16466,7 @@
         <v>-99.48</v>
       </c>
       <c r="J155" t="n">
-        <v>-75.11879793839044</v>
+        <v>-75.11879793839046</v>
       </c>
     </row>
     <row r="156">
@@ -16483,7 +16483,7 @@
         <v>28.54</v>
       </c>
       <c r="E156" t="n">
-        <v>11.54259743794682</v>
+        <v>11.54259743794681</v>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
@@ -16496,7 +16496,7 @@
         <v>45.03</v>
       </c>
       <c r="J156" t="n">
-        <v>113.1053920256714</v>
+        <v>113.1053920256715</v>
       </c>
     </row>
     <row r="157">
@@ -16513,7 +16513,7 @@
         <v>20.33</v>
       </c>
       <c r="E157" t="n">
-        <v>-14.80307616440454</v>
+        <v>-14.80307616440453</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
@@ -16573,7 +16573,7 @@
         <v>56.66</v>
       </c>
       <c r="E159" t="n">
-        <v>15.54006777798935</v>
+        <v>15.54006777798934</v>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
@@ -16586,7 +16586,7 @@
         <v>4.86</v>
       </c>
       <c r="J159" t="n">
-        <v>9.761100355490978</v>
+        <v>9.761100355490989</v>
       </c>
     </row>
     <row r="160">
@@ -16616,7 +16616,7 @@
         <v>22.44</v>
       </c>
       <c r="J160" t="n">
-        <v>35.49543317772999</v>
+        <v>35.49543317773</v>
       </c>
     </row>
     <row r="161">
@@ -16693,7 +16693,7 @@
         <v>14.7</v>
       </c>
       <c r="E163" t="n">
-        <v>-8.423305376983555</v>
+        <v>-8.423305376983551</v>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
@@ -16723,7 +16723,7 @@
         <v>-16</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.446218452859457</v>
+        <v>-1.446218452859462</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
@@ -16736,7 +16736,7 @@
         <v>-8.710000000000001</v>
       </c>
       <c r="J164" t="n">
-        <v>4.719471113069824</v>
+        <v>4.71947111306984</v>
       </c>
     </row>
     <row r="165">
@@ -16766,7 +16766,7 @@
         <v>-129.68</v>
       </c>
       <c r="J165" t="n">
-        <v>-35.72888214915253</v>
+        <v>-35.72888214915255</v>
       </c>
     </row>
     <row r="166">
@@ -16843,7 +16843,7 @@
         <v>13.17</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.9467536415414589</v>
+        <v>-0.9467536415414604</v>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
@@ -16856,7 +16856,7 @@
         <v>-32.64</v>
       </c>
       <c r="J168" t="n">
-        <v>-3.758423314661051</v>
+        <v>-3.758423314661039</v>
       </c>
     </row>
     <row r="169">
@@ -16873,7 +16873,7 @@
         <v>-27.33</v>
       </c>
       <c r="E169" t="n">
-        <v>4.852772989281384</v>
+        <v>4.852772989281385</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -16886,7 +16886,7 @@
         <v>29.18</v>
       </c>
       <c r="J169" t="n">
-        <v>6.385910607611797</v>
+        <v>6.385910607611801</v>
       </c>
     </row>
     <row r="170">
@@ -16903,7 +16903,7 @@
         <v>-7.48</v>
       </c>
       <c r="E170" t="n">
-        <v>1.592914625640289</v>
+        <v>1.592914625640286</v>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
@@ -16916,7 +16916,7 @@
         <v>-29.97</v>
       </c>
       <c r="J170" t="n">
-        <v>0.214470537750471</v>
+        <v>0.2144705377504704</v>
       </c>
     </row>
     <row r="171">
@@ -16933,7 +16933,7 @@
         <v>-36.53</v>
       </c>
       <c r="E171" t="n">
-        <v>4.09467860879314</v>
+        <v>4.094678608793147</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
@@ -16976,7 +16976,7 @@
         <v>-160.67</v>
       </c>
       <c r="J172" t="n">
-        <v>2.649658235953568</v>
+        <v>2.649658235953584</v>
       </c>
     </row>
     <row r="173">
@@ -16993,7 +16993,7 @@
         <v>13.1</v>
       </c>
       <c r="E173" t="n">
-        <v>2.49496425678845</v>
+        <v>2.494964256788447</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
@@ -17006,7 +17006,7 @@
         <v>5.96</v>
       </c>
       <c r="J173" t="n">
-        <v>3.172955603764812</v>
+        <v>3.172955603764817</v>
       </c>
     </row>
     <row r="174">
@@ -17023,7 +17023,7 @@
         <v>14.14</v>
       </c>
       <c r="E174" t="n">
-        <v>1.162887462231146</v>
+        <v>1.162887462231147</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
@@ -17036,7 +17036,7 @@
         <v>45.82</v>
       </c>
       <c r="J174" t="n">
-        <v>-2.004135885490404</v>
+        <v>-2.004135885490391</v>
       </c>
     </row>
     <row r="175">
@@ -17053,7 +17053,7 @@
         <v>-44.04</v>
       </c>
       <c r="E175" t="n">
-        <v>1.828835158430783</v>
+        <v>1.828835158430771</v>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
@@ -17066,7 +17066,7 @@
         <v>1.26</v>
       </c>
       <c r="J175" t="n">
-        <v>2.705118338895466</v>
+        <v>2.705118338895443</v>
       </c>
     </row>
     <row r="176">
@@ -17083,7 +17083,7 @@
         <v>-0.73</v>
       </c>
       <c r="E176" t="n">
-        <v>1.096550196452451</v>
+        <v>1.096550196452446</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
@@ -17096,7 +17096,7 @@
         <v>46.84</v>
       </c>
       <c r="J176" t="n">
-        <v>-12.7540478265158</v>
+        <v>-12.75404782651581</v>
       </c>
     </row>
     <row r="177">
@@ -17113,7 +17113,7 @@
         <v>-14.84</v>
       </c>
       <c r="E177" t="n">
-        <v>-8.573401133246389</v>
+        <v>-8.573401133246396</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
@@ -17126,7 +17126,7 @@
         <v>58.13</v>
       </c>
       <c r="J177" t="n">
-        <v>-9.437622570541583</v>
+        <v>-9.437622570541579</v>
       </c>
     </row>
     <row r="178">
@@ -17143,7 +17143,7 @@
         <v>-2.04</v>
       </c>
       <c r="E178" t="n">
-        <v>1.644444805393501</v>
+        <v>1.644444805393511</v>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
@@ -17173,7 +17173,7 @@
         <v>-15.27</v>
       </c>
       <c r="E179" t="n">
-        <v>2.656993804930143</v>
+        <v>2.656993804930154</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
@@ -17186,7 +17186,7 @@
         <v>-120.43</v>
       </c>
       <c r="J179" t="n">
-        <v>2.34054465032081</v>
+        <v>2.340544650320794</v>
       </c>
     </row>
     <row r="180">
@@ -17203,7 +17203,7 @@
         <v>24.8</v>
       </c>
       <c r="E180" t="n">
-        <v>-2.688330153107438</v>
+        <v>-2.688330153107443</v>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
@@ -17216,7 +17216,7 @@
         <v>-160.67</v>
       </c>
       <c r="J180" t="n">
-        <v>-4.894498091027266</v>
+        <v>-4.894498091027248</v>
       </c>
     </row>
     <row r="181">
@@ -17233,7 +17233,7 @@
         <v>36.92</v>
       </c>
       <c r="E181" t="n">
-        <v>-3.08011176138827</v>
+        <v>-3.08011176138828</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
@@ -17263,7 +17263,7 @@
         <v>-0.92</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.313103035596227</v>
+        <v>-3.313103035596233</v>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
@@ -17276,7 +17276,7 @@
         <v>-77.04000000000001</v>
       </c>
       <c r="J182" t="n">
-        <v>-8.807272357353785</v>
+        <v>-8.807272357353778</v>
       </c>
     </row>
     <row r="183">
@@ -17293,7 +17293,7 @@
         <v>89.05</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.9712429485027386</v>
+        <v>-0.9712429485027392</v>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
@@ -17306,7 +17306,7 @@
         <v>-11.85</v>
       </c>
       <c r="J183" t="n">
-        <v>-2.8265640598319</v>
+        <v>-2.826564059831905</v>
       </c>
     </row>
     <row r="184">
@@ -17323,7 +17323,7 @@
         <v>2.92</v>
       </c>
       <c r="E184" t="n">
-        <v>0.283612828828802</v>
+        <v>0.2836128288288008</v>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
@@ -17336,7 +17336,7 @@
         <v>-24.16</v>
       </c>
       <c r="J184" t="n">
-        <v>12.48079948411107</v>
+        <v>12.48079948411109</v>
       </c>
     </row>
     <row r="185">
@@ -17353,7 +17353,7 @@
         <v>25.71</v>
       </c>
       <c r="E185" t="n">
-        <v>-6.722575209115814</v>
+        <v>-6.7225752091158</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
@@ -17366,7 +17366,7 @@
         <v>-50.76</v>
       </c>
       <c r="J185" t="n">
-        <v>-22.46676160929518</v>
+        <v>-22.46676160929519</v>
       </c>
     </row>
     <row r="186">
@@ -17383,7 +17383,7 @@
         <v>-15.1</v>
       </c>
       <c r="E186" t="n">
-        <v>2.488386745064473</v>
+        <v>2.488386745064476</v>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
@@ -17396,7 +17396,7 @@
         <v>65.51000000000001</v>
       </c>
       <c r="J186" t="n">
-        <v>-0.5683990613159395</v>
+        <v>-0.5683990613159595</v>
       </c>
     </row>
     <row r="187">
@@ -17413,7 +17413,7 @@
         <v>-12.21</v>
       </c>
       <c r="E187" t="n">
-        <v>1.790961971573791</v>
+        <v>1.790961971573799</v>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
@@ -17426,7 +17426,7 @@
         <v>-4.47</v>
       </c>
       <c r="J187" t="n">
-        <v>5.048794143110962</v>
+        <v>5.048794143110957</v>
       </c>
     </row>
     <row r="188">
@@ -17443,7 +17443,7 @@
         <v>30.21</v>
       </c>
       <c r="E188" t="n">
-        <v>2.419920534579838</v>
+        <v>2.419920534579829</v>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
@@ -17473,7 +17473,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>-2.298043203110683</v>
+        <v>-2.298043203110671</v>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
@@ -17486,7 +17486,7 @@
         <v>-47.7</v>
       </c>
       <c r="J189" t="n">
-        <v>-9.218718633401075</v>
+        <v>-9.21871863340106</v>
       </c>
     </row>
     <row r="190">
@@ -17503,7 +17503,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>-1.029221162483377</v>
+        <v>-1.029221162483385</v>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
@@ -17533,7 +17533,7 @@
         <v>25.18</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.233951961469137</v>
+        <v>-0.2339519614691468</v>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
@@ -17546,7 +17546,7 @@
         <v>-33.81</v>
       </c>
       <c r="J191" t="n">
-        <v>9.462351517366342</v>
+        <v>9.46235151736634</v>
       </c>
     </row>
     <row r="192">
@@ -17563,7 +17563,7 @@
         <v>14.5</v>
       </c>
       <c r="E192" t="n">
-        <v>-1.940536973544893</v>
+        <v>-1.940536973544899</v>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
@@ -17593,7 +17593,7 @@
         <v>0.55</v>
       </c>
       <c r="E193" t="n">
-        <v>-1.715552071529427</v>
+        <v>-1.715552071529434</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
@@ -17606,7 +17606,7 @@
         <v>3.77</v>
       </c>
       <c r="J193" t="n">
-        <v>-14.27188132507285</v>
+        <v>-14.27188132507284</v>
       </c>
     </row>
     <row r="194">
@@ -17623,7 +17623,7 @@
         <v>-22.07</v>
       </c>
       <c r="E194" t="n">
-        <v>4.143591431701811</v>
+        <v>4.143591431701813</v>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
@@ -17636,7 +17636,7 @@
         <v>-27.93</v>
       </c>
       <c r="J194" t="n">
-        <v>15.09405018335974</v>
+        <v>15.09405018335975</v>
       </c>
     </row>
     <row r="195">
@@ -17653,7 +17653,7 @@
         <v>13.19</v>
       </c>
       <c r="E195" t="n">
-        <v>2.766113186114395</v>
+        <v>2.766113186114398</v>
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
@@ -17666,7 +17666,7 @@
         <v>-24.95</v>
       </c>
       <c r="J195" t="n">
-        <v>12.5594748699155</v>
+        <v>12.55947486991549</v>
       </c>
     </row>
     <row r="196">
@@ -17683,7 +17683,7 @@
         <v>16.37</v>
       </c>
       <c r="E196" t="n">
-        <v>4.871759307480181</v>
+        <v>4.871759307480174</v>
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
@@ -17696,7 +17696,7 @@
         <v>-1.88</v>
       </c>
       <c r="J196" t="n">
-        <v>-5.548461795082568</v>
+        <v>-5.548461795082564</v>
       </c>
     </row>
     <row r="197">
@@ -17713,7 +17713,7 @@
         <v>5.02</v>
       </c>
       <c r="E197" t="n">
-        <v>-4.834930782879178</v>
+        <v>-4.834930782879174</v>
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
@@ -17726,7 +17726,7 @@
         <v>-4.24</v>
       </c>
       <c r="J197" t="n">
-        <v>-14.04288196584806</v>
+        <v>-14.04288196584805</v>
       </c>
     </row>
     <row r="198">
@@ -17743,7 +17743,7 @@
         <v>7.79</v>
       </c>
       <c r="E198" t="n">
-        <v>2.694860972646177</v>
+        <v>2.694860972646183</v>
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
@@ -17756,7 +17756,7 @@
         <v>1.33</v>
       </c>
       <c r="J198" t="n">
-        <v>21.74335765729917</v>
+        <v>21.74335765729918</v>
       </c>
     </row>
     <row r="199">
@@ -17773,7 +17773,7 @@
         <v>11.7</v>
       </c>
       <c r="E199" t="n">
-        <v>3.171518332868349</v>
+        <v>3.17151833286835</v>
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
@@ -17786,7 +17786,7 @@
         <v>-9.34</v>
       </c>
       <c r="J199" t="n">
-        <v>-2.536889297380201</v>
+        <v>-2.536889297380202</v>
       </c>
     </row>
     <row r="200">
@@ -17803,7 +17803,7 @@
         <v>3.39</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.079944372622315</v>
+        <v>-1.079944372622321</v>
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
@@ -17816,7 +17816,7 @@
         <v>-12.55</v>
       </c>
       <c r="J200" t="n">
-        <v>-14.31756389589424</v>
+        <v>-14.31756389589422</v>
       </c>
     </row>
   </sheetData>
